--- a/BackTest/2019-10-14 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-14 BackTest TMTG.xlsx
@@ -2252,7 +2252,7 @@
         <v>0.06000000000000005</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
         <v>1.027</v>
@@ -2303,7 +2303,7 @@
         <v>0.07000000000000006</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L41" t="n">
         <v>1.027</v>
@@ -2405,7 +2405,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="K43" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L43" t="n">
         <v>1.026</v>
@@ -2456,7 +2456,7 @@
         <v>0.09000000000000008</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1.025</v>
@@ -2558,7 +2558,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>1.025</v>
@@ -2609,7 +2609,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L47" t="n">
         <v>1.025</v>
@@ -2660,7 +2660,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L48" t="n">
         <v>1.024</v>
@@ -2711,7 +2711,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>1.023</v>
@@ -2762,7 +2762,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>1.022</v>
@@ -2813,7 +2813,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>1.022</v>
@@ -2864,7 +2864,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>1.021</v>
@@ -2915,7 +2915,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>1.021</v>
@@ -2966,7 +2966,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L54" t="n">
         <v>1.021</v>
@@ -3017,7 +3017,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>1.021</v>
@@ -3068,7 +3068,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>1.021</v>
@@ -3119,7 +3119,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>1.022</v>
@@ -3170,7 +3170,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>1.023</v>
@@ -3221,7 +3221,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>1.024</v>
@@ -3272,7 +3272,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>1.025</v>
@@ -3374,7 +3374,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>1.025</v>
@@ -3425,7 +3425,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>1.026</v>
@@ -3476,7 +3476,7 @@
         <v>0.1700000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L64" t="n">
         <v>1.026</v>
@@ -3527,7 +3527,7 @@
         <v>0.1800000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L65" t="n">
         <v>1.026</v>
@@ -3578,7 +3578,7 @@
         <v>0.1900000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L66" t="n">
         <v>1.026</v>
@@ -3629,7 +3629,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>1.026</v>
@@ -3680,7 +3680,7 @@
         <v>0.2100000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>1.025</v>
@@ -3731,7 +3731,7 @@
         <v>0.2200000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>1.025</v>
@@ -3833,7 +3833,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L71" t="n">
         <v>1.025</v>
@@ -3884,7 +3884,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>1.026</v>
@@ -3935,7 +3935,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L73" t="n">
         <v>1.026</v>
@@ -3986,7 +3986,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>1.027</v>
@@ -4037,7 +4037,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="K75" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>1.026</v>
@@ -4088,7 +4088,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L76" t="n">
         <v>1.026</v>
@@ -4139,7 +4139,7 @@
         <v>0.2600000000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L77" t="n">
         <v>1.026</v>
@@ -4190,7 +4190,7 @@
         <v>0.2700000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>1.026</v>
@@ -4241,7 +4241,7 @@
         <v>0.2700000000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>1.025</v>
@@ -4292,7 +4292,7 @@
         <v>0.2700000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>1.025</v>
@@ -4343,7 +4343,7 @@
         <v>0.2800000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>1.025</v>
@@ -4394,7 +4394,7 @@
         <v>0.2800000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>1.025</v>
@@ -4445,7 +4445,7 @@
         <v>0.2900000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>1.024</v>
@@ -4496,7 +4496,7 @@
         <v>0.3000000000000003</v>
       </c>
       <c r="K84" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>1.022</v>
@@ -4547,7 +4547,7 @@
         <v>0.3000000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>1.021</v>
@@ -4598,7 +4598,7 @@
         <v>0.3000000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L86" t="n">
         <v>1.02</v>
@@ -4649,7 +4649,7 @@
         <v>0.3000000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>1.018</v>
@@ -4751,7 +4751,7 @@
         <v>0.3100000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>1.018</v>
@@ -4802,7 +4802,7 @@
         <v>0.3100000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>1.018</v>
@@ -4853,7 +4853,7 @@
         <v>0.3200000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L91" t="n">
         <v>1.016</v>
@@ -4904,7 +4904,7 @@
         <v>0.3200000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>1.014</v>
@@ -4955,7 +4955,7 @@
         <v>0.3300000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>1.014</v>
@@ -5006,7 +5006,7 @@
         <v>0.3300000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>1.015</v>
@@ -5057,7 +5057,7 @@
         <v>0.3400000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>1.015</v>
@@ -5108,7 +5108,7 @@
         <v>0.3400000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1.015</v>
@@ -5159,7 +5159,7 @@
         <v>0.3500000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>1.016</v>
@@ -5210,7 +5210,7 @@
         <v>0.3600000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L98" t="n">
         <v>1.015</v>
@@ -5312,7 +5312,7 @@
         <v>0.3700000000000003</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
         <v>1.015</v>
@@ -5363,7 +5363,7 @@
         <v>0.3700000000000003</v>
       </c>
       <c r="K101" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
         <v>1.016</v>
@@ -5516,7 +5516,7 @@
         <v>0.3900000000000003</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L104" t="n">
         <v>1.016</v>
@@ -5618,7 +5618,7 @@
         <v>0.4000000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L106" t="n">
         <v>1.016</v>
@@ -5720,7 +5720,7 @@
         <v>0.4000000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>1.015</v>
@@ -5771,7 +5771,7 @@
         <v>0.4000000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>1.014</v>
@@ -5873,7 +5873,7 @@
         <v>0.4100000000000004</v>
       </c>
       <c r="K111" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>1.014</v>
@@ -5924,7 +5924,7 @@
         <v>0.4100000000000004</v>
       </c>
       <c r="K112" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>1.015</v>
@@ -5975,7 +5975,7 @@
         <v>0.4200000000000004</v>
       </c>
       <c r="K113" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>1.014</v>
@@ -6026,7 +6026,7 @@
         <v>0.4300000000000004</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>1.014</v>
@@ -6128,7 +6128,7 @@
         <v>0.4500000000000004</v>
       </c>
       <c r="K116" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L116" t="n">
         <v>1.015</v>
@@ -6179,7 +6179,7 @@
         <v>0.4500000000000004</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>1.016</v>
@@ -6230,7 +6230,7 @@
         <v>0.4500000000000004</v>
       </c>
       <c r="K118" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>1.017</v>
@@ -6383,7 +6383,7 @@
         <v>0.4700000000000004</v>
       </c>
       <c r="K121" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>1.016</v>
@@ -6434,7 +6434,7 @@
         <v>0.4900000000000004</v>
       </c>
       <c r="K122" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>1.016</v>
@@ -6536,7 +6536,7 @@
         <v>0.4900000000000004</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>1.017</v>
@@ -6587,7 +6587,7 @@
         <v>0.4900000000000004</v>
       </c>
       <c r="K125" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>1.018</v>
@@ -6638,7 +6638,7 @@
         <v>0.5000000000000004</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>1.017</v>
@@ -6689,7 +6689,7 @@
         <v>0.5000000000000004</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>1.016</v>
@@ -6740,7 +6740,7 @@
         <v>0.5000000000000004</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L128" t="n">
         <v>1.015</v>
@@ -6791,7 +6791,7 @@
         <v>0.5000000000000004</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L129" t="n">
         <v>1.014</v>
@@ -6842,7 +6842,7 @@
         <v>0.5000000000000004</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>1.013</v>
@@ -6944,7 +6944,7 @@
         <v>0.5200000000000005</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>1.014</v>
@@ -6995,7 +6995,7 @@
         <v>0.5200000000000005</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>1.013</v>
@@ -7046,7 +7046,7 @@
         <v>0.5200000000000005</v>
       </c>
       <c r="K134" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>1.012</v>
@@ -7097,7 +7097,7 @@
         <v>0.5300000000000005</v>
       </c>
       <c r="K135" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>1.012</v>
@@ -7148,7 +7148,7 @@
         <v>0.5400000000000005</v>
       </c>
       <c r="K136" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>1.012</v>
@@ -7199,7 +7199,7 @@
         <v>0.5500000000000005</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L137" t="n">
         <v>1.013</v>
@@ -7250,7 +7250,7 @@
         <v>0.5500000000000005</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L138" t="n">
         <v>1.014</v>
@@ -7301,7 +7301,7 @@
         <v>0.5500000000000005</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>1.015</v>
@@ -7403,7 +7403,7 @@
         <v>0.5600000000000005</v>
       </c>
       <c r="K141" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>1.015</v>
@@ -7454,7 +7454,7 @@
         <v>0.5700000000000005</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>1.016</v>
@@ -7505,7 +7505,7 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="K143" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>1.018</v>
@@ -7607,7 +7607,7 @@
         <v>0.5900000000000005</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L145" t="n">
         <v>1.019</v>
@@ -7658,7 +7658,7 @@
         <v>0.6000000000000005</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>1.019</v>
@@ -7709,7 +7709,7 @@
         <v>0.6100000000000005</v>
       </c>
       <c r="K147" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>1.019</v>
@@ -7760,7 +7760,7 @@
         <v>0.6100000000000005</v>
       </c>
       <c r="K148" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>1.019</v>
@@ -7811,7 +7811,7 @@
         <v>0.6100000000000005</v>
       </c>
       <c r="K149" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>1.019</v>
@@ -7862,7 +7862,7 @@
         <v>0.6100000000000005</v>
       </c>
       <c r="K150" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>1.019</v>
@@ -7913,7 +7913,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K151" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>1.021</v>
@@ -7964,7 +7964,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K152" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>1.022</v>
@@ -8015,7 +8015,7 @@
         <v>0.6200000000000006</v>
       </c>
       <c r="K153" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>1.022</v>
@@ -8066,7 +8066,7 @@
         <v>0.6300000000000006</v>
       </c>
       <c r="K154" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>1.022</v>
@@ -8117,7 +8117,7 @@
         <v>0.6400000000000006</v>
       </c>
       <c r="K155" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L155" t="n">
         <v>1.023</v>
@@ -8168,7 +8168,7 @@
         <v>0.6500000000000006</v>
       </c>
       <c r="K156" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>1.024</v>
@@ -8219,7 +8219,7 @@
         <v>0.6600000000000006</v>
       </c>
       <c r="K157" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L157" t="n">
         <v>1.025</v>
@@ -8270,7 +8270,7 @@
         <v>0.6600000000000006</v>
       </c>
       <c r="K158" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L158" t="n">
         <v>1.026</v>
@@ -8321,7 +8321,7 @@
         <v>0.6600000000000006</v>
       </c>
       <c r="K159" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L159" t="n">
         <v>1.027</v>
@@ -8372,7 +8372,7 @@
         <v>0.6700000000000006</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L160" t="n">
         <v>1.027</v>
@@ -8423,7 +8423,7 @@
         <v>0.6700000000000006</v>
       </c>
       <c r="K161" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L161" t="n">
         <v>1.026</v>
@@ -8474,7 +8474,7 @@
         <v>0.6700000000000006</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L162" t="n">
         <v>1.025</v>
@@ -8525,7 +8525,7 @@
         <v>0.6800000000000006</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L163" t="n">
         <v>1.025</v>
@@ -8576,7 +8576,7 @@
         <v>0.6900000000000006</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L164" t="n">
         <v>1.025</v>
@@ -8678,7 +8678,7 @@
         <v>0.7000000000000006</v>
       </c>
       <c r="K166" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>1.025</v>
@@ -8729,7 +8729,7 @@
         <v>0.7100000000000006</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L167" t="n">
         <v>1.024</v>
@@ -8780,7 +8780,7 @@
         <v>0.7200000000000006</v>
       </c>
       <c r="K168" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>1.024</v>
@@ -8933,7 +8933,7 @@
         <v>0.7300000000000006</v>
       </c>
       <c r="K171" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>1.023</v>
@@ -8984,7 +8984,7 @@
         <v>0.7300000000000006</v>
       </c>
       <c r="K172" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L172" t="n">
         <v>1.023</v>
@@ -9035,7 +9035,7 @@
         <v>0.7400000000000007</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L173" t="n">
         <v>1.023</v>
@@ -9137,7 +9137,7 @@
         <v>0.7500000000000007</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L175" t="n">
         <v>1.023</v>
@@ -9188,7 +9188,7 @@
         <v>0.7600000000000007</v>
       </c>
       <c r="K176" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
         <v>1.023</v>
@@ -9290,7 +9290,7 @@
         <v>0.7700000000000007</v>
       </c>
       <c r="K178" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>1.023</v>
@@ -9341,7 +9341,7 @@
         <v>0.7700000000000007</v>
       </c>
       <c r="K179" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>1.023</v>
@@ -9392,7 +9392,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K180" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L180" t="n">
         <v>1.024</v>
@@ -9443,7 +9443,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K181" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>1.025</v>
@@ -9494,7 +9494,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K182" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>1.026</v>
@@ -9545,7 +9545,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>1.026</v>
@@ -9596,7 +9596,7 @@
         <v>0.7800000000000007</v>
       </c>
       <c r="K184" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>1.027</v>
@@ -9647,7 +9647,7 @@
         <v>0.7900000000000007</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>1.027</v>
@@ -9800,7 +9800,7 @@
         <v>0.8200000000000007</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L188" t="n">
         <v>1.027</v>
@@ -9851,7 +9851,7 @@
         <v>0.8300000000000007</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>1.027</v>
@@ -9902,7 +9902,7 @@
         <v>0.8400000000000007</v>
       </c>
       <c r="K190" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>1.027</v>
@@ -9953,7 +9953,7 @@
         <v>0.8500000000000008</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>1.026</v>
@@ -10004,7 +10004,7 @@
         <v>0.8600000000000008</v>
       </c>
       <c r="K192" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>1.026</v>
@@ -10055,7 +10055,7 @@
         <v>0.8700000000000008</v>
       </c>
       <c r="K193" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L193" t="n">
         <v>1.025</v>
@@ -10157,7 +10157,7 @@
         <v>0.8700000000000008</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>1.024</v>
@@ -10208,7 +10208,7 @@
         <v>0.8800000000000008</v>
       </c>
       <c r="K196" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L196" t="n">
         <v>1.022</v>
@@ -10259,7 +10259,7 @@
         <v>0.8900000000000008</v>
       </c>
       <c r="K197" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L197" t="n">
         <v>1.022</v>
@@ -10361,7 +10361,7 @@
         <v>0.9000000000000008</v>
       </c>
       <c r="K199" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>1.022</v>
@@ -10412,7 +10412,7 @@
         <v>0.9000000000000008</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>1.022</v>
@@ -10463,7 +10463,7 @@
         <v>0.9100000000000008</v>
       </c>
       <c r="K201" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L201" t="n">
         <v>1.022</v>
@@ -10514,7 +10514,7 @@
         <v>0.9100000000000008</v>
       </c>
       <c r="K202" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>1.021</v>
@@ -10565,7 +10565,7 @@
         <v>0.9100000000000008</v>
       </c>
       <c r="K203" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>1.021</v>
@@ -10616,7 +10616,7 @@
         <v>0.9100000000000008</v>
       </c>
       <c r="K204" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>1.021</v>
@@ -10667,7 +10667,7 @@
         <v>0.9100000000000008</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>1.021</v>
@@ -10718,7 +10718,7 @@
         <v>0.9200000000000008</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>1.021</v>
@@ -10820,7 +10820,7 @@
         <v>0.9300000000000008</v>
       </c>
       <c r="K208" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>1.021</v>
@@ -10871,7 +10871,7 @@
         <v>0.9300000000000008</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>1.02</v>
@@ -10922,7 +10922,7 @@
         <v>0.9300000000000008</v>
       </c>
       <c r="K210" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>1.019</v>
@@ -10973,7 +10973,7 @@
         <v>0.9400000000000008</v>
       </c>
       <c r="K211" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>1.018</v>
@@ -11024,7 +11024,7 @@
         <v>0.9500000000000008</v>
       </c>
       <c r="K212" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>1.018</v>
@@ -11177,7 +11177,7 @@
         <v>0.9500000000000008</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>1.018</v>
@@ -11228,7 +11228,7 @@
         <v>0.9600000000000009</v>
       </c>
       <c r="K216" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>1.02</v>
@@ -11381,7 +11381,7 @@
         <v>0.9700000000000009</v>
       </c>
       <c r="K219" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>1.02</v>
@@ -11432,7 +11432,7 @@
         <v>0.9700000000000009</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>1.02</v>
@@ -11687,7 +11687,7 @@
         <v>0.9700000000000009</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L225" t="n">
         <v>1.021</v>
@@ -11738,7 +11738,7 @@
         <v>0.9800000000000009</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L226" t="n">
         <v>1.019</v>
@@ -11993,7 +11993,7 @@
         <v>0.9900000000000009</v>
       </c>
       <c r="K231" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>1.019</v>
@@ -12197,7 +12197,7 @@
         <v>0.9900000000000009</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L235" t="n">
         <v>1.019</v>
@@ -12247,9 +12247,7 @@
       <c r="J236" t="n">
         <v>0.9900000000000009</v>
       </c>
-      <c r="K236" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1.02</v>
       </c>
@@ -12298,9 +12296,7 @@
       <c r="J237" t="n">
         <v>0.9900000000000009</v>
       </c>
-      <c r="K237" t="n">
-        <v>0</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1.02</v>
       </c>
@@ -12349,9 +12345,7 @@
       <c r="J238" t="n">
         <v>0.9900000000000009</v>
       </c>
-      <c r="K238" t="n">
-        <v>0</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1.02</v>
       </c>
@@ -12400,9 +12394,7 @@
       <c r="J239" t="n">
         <v>0.9900000000000009</v>
       </c>
-      <c r="K239" t="n">
-        <v>0</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1.02</v>
       </c>
@@ -12451,9 +12443,7 @@
       <c r="J240" t="n">
         <v>0.9900000000000009</v>
       </c>
-      <c r="K240" t="n">
-        <v>0</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1.02</v>
       </c>
@@ -12503,7 +12493,7 @@
         <v>1.000000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L241" t="n">
         <v>1.019</v>
@@ -12656,7 +12646,7 @@
         <v>1.020000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>1.018</v>
@@ -12758,7 +12748,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>1.018</v>
@@ -12962,7 +12952,7 @@
         <v>1.040000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>1.016</v>
@@ -13013,7 +13003,7 @@
         <v>1.040000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L251" t="n">
         <v>1.016</v>
@@ -13115,7 +13105,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>1.016</v>
@@ -13166,7 +13156,7 @@
         <v>1.060000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>1.018</v>
@@ -13319,7 +13309,7 @@
         <v>1.080000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L257" t="n">
         <v>1.019</v>
@@ -13370,7 +13360,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L258" t="n">
         <v>1.019</v>
@@ -13421,7 +13411,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L259" t="n">
         <v>1.02</v>
@@ -13472,7 +13462,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L260" t="n">
         <v>1.021</v>
@@ -13523,7 +13513,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>1.022</v>
@@ -13625,7 +13615,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>1.022</v>
@@ -13676,7 +13666,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>1.021</v>
@@ -13778,7 +13768,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L266" t="n">
         <v>1.021</v>
@@ -13829,7 +13819,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L267" t="n">
         <v>1.019</v>
@@ -13931,7 +13921,7 @@
         <v>1.110000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>1.019</v>
@@ -13982,7 +13972,7 @@
         <v>1.110000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>1.019</v>
@@ -14033,7 +14023,7 @@
         <v>1.120000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>1.018</v>
@@ -14186,7 +14176,7 @@
         <v>1.130000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>1.018</v>
@@ -14288,7 +14278,7 @@
         <v>1.130000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>1.018</v>
@@ -14339,7 +14329,7 @@
         <v>1.130000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>1.019</v>
@@ -14492,7 +14482,7 @@
         <v>1.130000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L280" t="n">
         <v>1.019</v>
@@ -14542,9 +14532,7 @@
       <c r="J281" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K281" t="n">
-        <v>0</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1.02</v>
       </c>
@@ -14593,9 +14581,7 @@
       <c r="J282" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K282" t="n">
-        <v>0</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1.02</v>
       </c>
@@ -14644,9 +14630,7 @@
       <c r="J283" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K283" t="n">
-        <v>0</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1.02</v>
       </c>
@@ -14695,9 +14679,7 @@
       <c r="J284" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K284" t="n">
-        <v>0</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1.02</v>
       </c>
@@ -14746,9 +14728,7 @@
       <c r="J285" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K285" t="n">
-        <v>0</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1.02</v>
       </c>
@@ -14797,9 +14777,7 @@
       <c r="J286" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K286" t="n">
-        <v>0</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1.02</v>
       </c>
@@ -14848,9 +14826,7 @@
       <c r="J287" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K287" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1.02</v>
       </c>
@@ -14899,9 +14875,7 @@
       <c r="J288" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K288" t="n">
-        <v>0</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1.02</v>
       </c>
@@ -14950,9 +14924,7 @@
       <c r="J289" t="n">
         <v>1.130000000000001</v>
       </c>
-      <c r="K289" t="n">
-        <v>0</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1.02</v>
       </c>
@@ -15002,7 +14974,7 @@
         <v>1.140000000000001</v>
       </c>
       <c r="K290" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L290" t="n">
         <v>1.019</v>
@@ -15053,7 +15025,7 @@
         <v>1.140000000000001</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L291" t="n">
         <v>1.018</v>
@@ -15461,7 +15433,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L299" t="n">
         <v>1.018</v>
@@ -15512,7 +15484,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L300" t="n">
         <v>1.019</v>
@@ -15563,7 +15535,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L301" t="n">
         <v>1.02</v>
@@ -15614,7 +15586,7 @@
         <v>1.200000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L302" t="n">
         <v>1.022</v>
@@ -15716,7 +15688,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L304" t="n">
         <v>1.023</v>
@@ -15818,7 +15790,7 @@
         <v>1.230000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L306" t="n">
         <v>1.024</v>
@@ -15869,7 +15841,7 @@
         <v>1.240000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>1.024</v>
@@ -15920,7 +15892,7 @@
         <v>1.240000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L308" t="n">
         <v>1.024</v>
@@ -16022,7 +15994,7 @@
         <v>1.260000000000001</v>
       </c>
       <c r="K310" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L310" t="n">
         <v>1.025</v>
@@ -16073,7 +16045,7 @@
         <v>1.260000000000001</v>
       </c>
       <c r="K311" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>1.026</v>
@@ -16124,7 +16096,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>1.025</v>
@@ -16175,7 +16147,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L313" t="n">
         <v>1.025</v>
@@ -16277,7 +16249,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="K315" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L315" t="n">
         <v>1.023</v>
@@ -16328,7 +16300,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="K316" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L316" t="n">
         <v>1.022</v>
@@ -16379,7 +16351,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="K317" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L317" t="n">
         <v>1.02</v>
@@ -16430,7 +16402,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>1.018</v>
@@ -16481,7 +16453,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="K319" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L319" t="n">
         <v>1.017</v>
@@ -16532,7 +16504,7 @@
         <v>1.290000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>1.016</v>
@@ -16634,7 +16606,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>1.014</v>
@@ -16736,7 +16708,7 @@
         <v>1.320000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>1.013</v>
@@ -16787,7 +16759,7 @@
         <v>1.330000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L325" t="n">
         <v>1.014</v>
@@ -16838,7 +16810,7 @@
         <v>1.330000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>1.015</v>
@@ -16889,7 +16861,7 @@
         <v>1.330000000000001</v>
       </c>
       <c r="K327" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L327" t="n">
         <v>1.016</v>
@@ -16940,7 +16912,7 @@
         <v>1.340000000000001</v>
       </c>
       <c r="K328" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>1.016</v>
@@ -16991,7 +16963,7 @@
         <v>1.340000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L329" t="n">
         <v>1.016</v>
@@ -17042,7 +17014,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K330" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>1.016</v>
@@ -17093,7 +17065,7 @@
         <v>1.360000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>1.015</v>
@@ -17144,7 +17116,7 @@
         <v>1.360000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L332" t="n">
         <v>1.015</v>
@@ -17195,7 +17167,7 @@
         <v>1.370000000000001</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L333" t="n">
         <v>1.015</v>
@@ -17297,7 +17269,7 @@
         <v>1.380000000000001</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L335" t="n">
         <v>1.015</v>
@@ -17348,7 +17320,7 @@
         <v>1.390000000000001</v>
       </c>
       <c r="K336" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>1.015</v>
@@ -17450,7 +17422,7 @@
         <v>1.410000000000001</v>
       </c>
       <c r="K338" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L338" t="n">
         <v>1.015</v>
@@ -17501,7 +17473,7 @@
         <v>1.410000000000001</v>
       </c>
       <c r="K339" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>1.016</v>
@@ -17552,7 +17524,7 @@
         <v>1.410000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L340" t="n">
         <v>1.016</v>
@@ -17603,7 +17575,7 @@
         <v>1.410000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L341" t="n">
         <v>1.017</v>
@@ -17654,7 +17626,7 @@
         <v>1.420000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L342" t="n">
         <v>1.017</v>
@@ -17705,7 +17677,7 @@
         <v>1.420000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L343" t="n">
         <v>1.016</v>
@@ -17807,7 +17779,7 @@
         <v>1.420000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>1.015</v>
@@ -17858,7 +17830,7 @@
         <v>1.420000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>1.014</v>
@@ -17960,7 +17932,7 @@
         <v>1.430000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>1.015</v>
@@ -18011,7 +17983,7 @@
         <v>1.440000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>1.014</v>
@@ -18062,7 +18034,7 @@
         <v>1.440000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L350" t="n">
         <v>1.013</v>
@@ -18113,7 +18085,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L351" t="n">
         <v>1.013</v>
@@ -18164,7 +18136,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L352" t="n">
         <v>1.014</v>
@@ -18215,7 +18187,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>1.015</v>
@@ -18266,7 +18238,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>1.016</v>
@@ -18317,7 +18289,7 @@
         <v>1.460000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L355" t="n">
         <v>1.018</v>
@@ -18368,7 +18340,7 @@
         <v>1.460000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>1.02</v>
@@ -18470,7 +18442,7 @@
         <v>1.470000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>1.021</v>
@@ -18521,7 +18493,7 @@
         <v>1.470000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>1.022</v>
@@ -18572,7 +18544,7 @@
         <v>1.480000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L360" t="n">
         <v>1.024</v>
@@ -18623,7 +18595,7 @@
         <v>1.480000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>1.025</v>
@@ -18776,7 +18748,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>1.027</v>
@@ -18827,7 +18799,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>1.026</v>
@@ -18878,7 +18850,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>1.025</v>
@@ -19031,7 +19003,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L369" t="n">
         <v>1.024</v>
@@ -19082,7 +19054,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L370" t="n">
         <v>1.023</v>
@@ -19133,7 +19105,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L371" t="n">
         <v>1.022</v>
@@ -19184,7 +19156,7 @@
         <v>1.500000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L372" t="n">
         <v>1.02</v>
@@ -19235,7 +19207,7 @@
         <v>1.500000000000001</v>
       </c>
       <c r="K373" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L373" t="n">
         <v>1.018</v>
@@ -19286,7 +19258,7 @@
         <v>1.500000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L374" t="n">
         <v>1.017</v>
@@ -19337,7 +19309,7 @@
         <v>1.510000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>1.017</v>
@@ -19388,7 +19360,7 @@
         <v>1.510000000000001</v>
       </c>
       <c r="K376" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>1.017</v>
@@ -19439,7 +19411,7 @@
         <v>1.520000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>1.018</v>
@@ -19490,7 +19462,7 @@
         <v>1.520000000000001</v>
       </c>
       <c r="K378" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L378" t="n">
         <v>1.019</v>
@@ -19541,7 +19513,7 @@
         <v>1.520000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>1.02</v>

--- a/BackTest/2019-10-14 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-14 BackTest TMTG.xlsx
@@ -2236,13 +2236,17 @@
         <v>1.027666666666668</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.02</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2271,14 +2275,22 @@
         <v>1.027500000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2306,14 +2318,22 @@
         <v>1.027500000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -3496,13 +3516,17 @@
         <v>1.023666666666668</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.02</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3537,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3811,20 +3847,14 @@
         <v>1.021833333333335</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +3889,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3898,11 +3924,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3937,11 +3959,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3976,11 +3994,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4029,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4054,11 +4064,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +4099,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +4134,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4171,11 +4169,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4203,20 +4197,14 @@
         <v>1.020333333333334</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4244,20 +4232,14 @@
         <v>1.020166666666668</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4285,20 +4267,14 @@
         <v>1.020166666666668</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4326,20 +4302,14 @@
         <v>1.020166666666668</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4367,20 +4337,14 @@
         <v>1.020166666666668</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4379,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4454,11 +4414,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4486,20 +4442,14 @@
         <v>1.019666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4534,11 +4484,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4566,20 +4512,14 @@
         <v>1.019500000000001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +4554,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4653,11 +4589,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4692,11 +4624,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4731,11 +4659,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4770,11 +4694,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4802,20 +4722,14 @@
         <v>1.018500000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4843,20 +4757,14 @@
         <v>1.018500000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4891,11 +4799,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4834,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4969,11 +4869,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5001,20 +4897,14 @@
         <v>1.017666666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5042,20 +4932,14 @@
         <v>1.017333333333334</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5083,20 +4967,14 @@
         <v>1.017166666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5124,20 +5002,14 @@
         <v>1.017000000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5165,20 +5037,14 @@
         <v>1.016666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5206,20 +5072,14 @@
         <v>1.016333333333334</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5247,20 +5107,14 @@
         <v>1.016</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5288,20 +5142,14 @@
         <v>1.016</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5329,20 +5177,14 @@
         <v>1.015833333333334</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5370,20 +5212,14 @@
         <v>1.015666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5411,20 +5247,14 @@
         <v>1.015666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5452,20 +5282,14 @@
         <v>1.015666666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5493,20 +5317,14 @@
         <v>1.015666666666667</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5541,11 +5359,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5580,11 +5394,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5612,20 +5422,14 @@
         <v>1.015333333333334</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5464,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5499,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5738,11 +5534,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5777,11 +5569,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5604,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5855,11 +5639,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5894,11 +5674,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5933,11 +5709,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5972,11 +5744,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6007,16 +5775,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6044,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -9471,17 +9237,13 @@
         <v>1.019000000000002</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K252" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
@@ -9510,22 +9272,14 @@
         <v>1.019000000000002</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K253" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9559,14 +9313,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9600,14 +9348,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9641,14 +9383,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9682,14 +9418,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9723,14 +9453,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9764,14 +9488,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9805,14 +9523,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9846,14 +9558,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9887,14 +9593,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9928,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9969,14 +9663,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10010,14 +9698,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10051,14 +9733,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10092,14 +9768,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10133,14 +9803,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +9838,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10215,14 +9873,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10256,14 +9908,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10297,14 +9943,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10338,14 +9978,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10379,14 +10013,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10420,14 +10048,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10461,14 +10083,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10502,14 +10118,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10543,14 +10153,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10584,14 +10188,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10625,14 +10223,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10666,14 +10258,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10707,14 +10293,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10748,14 +10328,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10789,14 +10363,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10830,14 +10398,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10871,14 +10433,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10912,14 +10468,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10953,14 +10503,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10994,14 +10538,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11035,14 +10573,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11076,14 +10608,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11117,14 +10643,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11152,22 +10672,14 @@
         <v>1.018666666666669</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K293" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11195,22 +10707,14 @@
         <v>1.018666666666669</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K294" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11244,14 +10748,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11285,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11320,22 +10812,14 @@
         <v>1.018666666666668</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K297" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11369,14 +10853,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11407,17 +10885,11 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11451,14 +10923,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11492,14 +10958,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11533,14 +10993,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11574,14 +11028,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11615,14 +11063,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +11098,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11697,14 +11133,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11738,14 +11168,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11779,14 +11203,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11820,14 +11238,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11861,14 +11273,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11902,14 +11308,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11943,14 +11343,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11984,14 +11378,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12025,14 +11413,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12066,14 +11448,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12107,14 +11483,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12148,14 +11518,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12189,14 +11553,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12230,14 +11588,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12265,22 +11617,14 @@
         <v>1.019500000000002</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K320" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12308,22 +11652,14 @@
         <v>1.019500000000002</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K321" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12357,14 +11693,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12398,14 +11728,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12433,22 +11757,14 @@
         <v>1.019166666666668</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K324" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12482,14 +11798,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12517,22 +11827,14 @@
         <v>1.019166666666668</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K326" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12566,14 +11868,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12607,14 +11903,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12648,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12683,22 +11967,14 @@
         <v>1.019000000000001</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K330" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12726,22 +12002,14 @@
         <v>1.019000000000001</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K331" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12769,22 +12037,14 @@
         <v>1.018833333333335</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K332" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12812,22 +12072,14 @@
         <v>1.018833333333335</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K333" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12855,22 +12107,14 @@
         <v>1.018833333333335</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K334" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12898,22 +12142,14 @@
         <v>1.018666666666668</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K335" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12941,22 +12177,14 @@
         <v>1.018666666666668</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K336" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12984,22 +12212,14 @@
         <v>1.018500000000001</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K337" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13027,22 +12247,14 @@
         <v>1.018500000000001</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K338" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13070,22 +12282,14 @@
         <v>1.018500000000001</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K339" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13113,22 +12317,14 @@
         <v>1.018500000000001</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K340" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13162,14 +12358,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13203,14 +12393,8 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13244,14 +12428,8 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13279,22 +12457,14 @@
         <v>1.018000000000001</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K344" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13322,22 +12492,14 @@
         <v>1.017833333333334</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K345" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13365,22 +12527,14 @@
         <v>1.017666666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K346" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13408,22 +12562,14 @@
         <v>1.017666666666667</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K347" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13451,22 +12597,14 @@
         <v>1.017666666666667</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K348" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13494,22 +12632,14 @@
         <v>1.017500000000001</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K349" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13537,22 +12667,14 @@
         <v>1.017500000000001</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K350" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13580,22 +12702,14 @@
         <v>1.017666666666667</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K351" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13623,22 +12737,14 @@
         <v>1.017833333333334</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K352" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13666,22 +12772,14 @@
         <v>1.017833333333334</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K353" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13715,14 +12813,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13756,14 +12848,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13797,14 +12883,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13838,14 +12918,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13879,14 +12953,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-14 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-14 BackTest TMTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M358"/>
+  <dimension ref="A1:M359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>1.03</v>
       </c>
       <c r="F2" t="n">
-        <v>423300000</v>
+        <v>404600000</v>
       </c>
       <c r="G2" t="n">
         <v>1.028833333333334</v>
@@ -480,10 +480,10 @@
         <v>1.03</v>
       </c>
       <c r="F3" t="n">
-        <v>426700000</v>
+        <v>423300000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>1.03</v>
       </c>
       <c r="F4" t="n">
-        <v>428771407.7669</v>
+        <v>426700000</v>
       </c>
       <c r="G4" t="n">
         <v>1.029000000000001</v>
@@ -547,10 +547,10 @@
         <v>1.03</v>
       </c>
       <c r="E5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F5" t="n">
-        <v>426700104.9699</v>
+        <v>428771407.7669</v>
       </c>
       <c r="G5" t="n">
         <v>1.029000000000001</v>
@@ -582,13 +582,13 @@
         <v>1.03</v>
       </c>
       <c r="E6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F6" t="n">
-        <v>421600000</v>
+        <v>426700104.9699</v>
       </c>
       <c r="G6" t="n">
-        <v>1.029166666666668</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>1.03</v>
       </c>
       <c r="F7" t="n">
-        <v>421856891.8443</v>
+        <v>421600000</v>
       </c>
       <c r="G7" t="n">
         <v>1.029166666666668</v>
@@ -655,10 +655,10 @@
         <v>1.03</v>
       </c>
       <c r="F8" t="n">
-        <v>417943108.1557</v>
+        <v>421856891.8443</v>
       </c>
       <c r="G8" t="n">
-        <v>1.029333333333334</v>
+        <v>1.029166666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>1.03</v>
       </c>
       <c r="F9" t="n">
-        <v>159800000</v>
+        <v>417943108.1557</v>
       </c>
       <c r="G9" t="n">
         <v>1.029333333333334</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C10" t="n">
         <v>1.03</v>
@@ -722,10 +722,10 @@
         <v>1.03</v>
       </c>
       <c r="E10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F10" t="n">
-        <v>105400102.6631</v>
+        <v>159800000</v>
       </c>
       <c r="G10" t="n">
         <v>1.029333333333334</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C11" t="n">
         <v>1.03</v>
@@ -757,13 +757,13 @@
         <v>1.03</v>
       </c>
       <c r="E11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F11" t="n">
-        <v>426700000</v>
+        <v>105400102.6631</v>
       </c>
       <c r="G11" t="n">
-        <v>1.029500000000001</v>
+        <v>1.029333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>1.03</v>
       </c>
       <c r="F12" t="n">
-        <v>425256891.8443</v>
+        <v>426700000</v>
       </c>
       <c r="G12" t="n">
         <v>1.029500000000001</v>
@@ -830,7 +830,7 @@
         <v>1.03</v>
       </c>
       <c r="F13" t="n">
-        <v>430101676</v>
+        <v>425256891.8443</v>
       </c>
       <c r="G13" t="n">
         <v>1.029500000000001</v>
@@ -865,7 +865,7 @@
         <v>1.03</v>
       </c>
       <c r="F14" t="n">
-        <v>426441432.1557</v>
+        <v>430101676</v>
       </c>
       <c r="G14" t="n">
         <v>1.029500000000001</v>
@@ -900,10 +900,10 @@
         <v>1.03</v>
       </c>
       <c r="F15" t="n">
-        <v>416758567.8443</v>
+        <v>426441432.1557</v>
       </c>
       <c r="G15" t="n">
-        <v>1.029333333333334</v>
+        <v>1.029500000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>1.03</v>
       </c>
       <c r="F16" t="n">
-        <v>419900000</v>
+        <v>416758567.8443</v>
       </c>
       <c r="G16" t="n">
         <v>1.029333333333334</v>
@@ -970,7 +970,7 @@
         <v>1.03</v>
       </c>
       <c r="F17" t="n">
-        <v>423300000</v>
+        <v>419900000</v>
       </c>
       <c r="G17" t="n">
         <v>1.029333333333334</v>
@@ -1005,10 +1005,10 @@
         <v>1.03</v>
       </c>
       <c r="F18" t="n">
-        <v>430100000</v>
+        <v>423300000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.029500000000001</v>
+        <v>1.029333333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>1.03</v>
       </c>
       <c r="F19" t="n">
-        <v>421346389.388532</v>
+        <v>430100000</v>
       </c>
       <c r="G19" t="n">
         <v>1.029500000000001</v>
@@ -1072,10 +1072,10 @@
         <v>1.03</v>
       </c>
       <c r="E20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F20" t="n">
-        <v>433500126.5643</v>
+        <v>421346389.388532</v>
       </c>
       <c r="G20" t="n">
         <v>1.029500000000001</v>
@@ -1107,13 +1107,13 @@
         <v>1.03</v>
       </c>
       <c r="E21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F21" t="n">
-        <v>435200000</v>
+        <v>433500126.5643</v>
       </c>
       <c r="G21" t="n">
-        <v>1.029333333333334</v>
+        <v>1.029500000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1.03</v>
       </c>
       <c r="F22" t="n">
-        <v>436900000</v>
+        <v>435200000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.029166666666668</v>
+        <v>1.029333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>1.03</v>
       </c>
       <c r="F23" t="n">
-        <v>428653610.611468</v>
+        <v>436900000</v>
       </c>
       <c r="G23" t="n">
         <v>1.029166666666668</v>
@@ -1215,7 +1215,7 @@
         <v>1.03</v>
       </c>
       <c r="F24" t="n">
-        <v>423300000</v>
+        <v>428653610.611468</v>
       </c>
       <c r="G24" t="n">
         <v>1.029166666666668</v>
@@ -1250,7 +1250,7 @@
         <v>1.03</v>
       </c>
       <c r="F25" t="n">
-        <v>431546389.388532</v>
+        <v>423300000</v>
       </c>
       <c r="G25" t="n">
         <v>1.029166666666668</v>
@@ -1285,7 +1285,7 @@
         <v>1.03</v>
       </c>
       <c r="F26" t="n">
-        <v>68000000</v>
+        <v>431546389.388532</v>
       </c>
       <c r="G26" t="n">
         <v>1.029166666666668</v>
@@ -1320,10 +1320,10 @@
         <v>1.03</v>
       </c>
       <c r="F27" t="n">
-        <v>127.4457</v>
+        <v>68000000</v>
       </c>
       <c r="G27" t="n">
-        <v>1.029000000000001</v>
+        <v>1.029166666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.03</v>
       </c>
       <c r="F28" t="n">
-        <v>140.8651</v>
+        <v>127.4457</v>
       </c>
       <c r="G28" t="n">
         <v>1.029000000000001</v>
@@ -1390,7 +1390,7 @@
         <v>1.03</v>
       </c>
       <c r="F29" t="n">
-        <v>129.3073</v>
+        <v>140.8651</v>
       </c>
       <c r="G29" t="n">
         <v>1.029000000000001</v>
@@ -1425,7 +1425,7 @@
         <v>1.03</v>
       </c>
       <c r="F30" t="n">
-        <v>148.4484</v>
+        <v>129.3073</v>
       </c>
       <c r="G30" t="n">
         <v>1.029000000000001</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F31" t="n">
-        <v>127.4188</v>
+        <v>148.4484</v>
       </c>
       <c r="G31" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F32" t="n">
-        <v>111.4913</v>
+        <v>127.4188</v>
       </c>
       <c r="G32" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>1.03</v>
       </c>
       <c r="F33" t="n">
-        <v>123.6004</v>
+        <v>111.4913</v>
       </c>
       <c r="G33" t="n">
         <v>1.029000000000001</v>
@@ -1565,7 +1565,7 @@
         <v>1.03</v>
       </c>
       <c r="F34" t="n">
-        <v>131.5238</v>
+        <v>123.6004</v>
       </c>
       <c r="G34" t="n">
         <v>1.029000000000001</v>
@@ -1588,19 +1588,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F35" t="n">
-        <v>146.152</v>
+        <v>131.5238</v>
       </c>
       <c r="G35" t="n">
         <v>1.029000000000001</v>
@@ -1623,19 +1623,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E36" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F36" t="n">
-        <v>144.2839</v>
+        <v>146.152</v>
       </c>
       <c r="G36" t="n">
         <v>1.029000000000001</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F37" t="n">
-        <v>109.8361</v>
+        <v>144.2839</v>
       </c>
       <c r="G37" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F38" t="n">
-        <v>143.732</v>
+        <v>109.8361</v>
       </c>
       <c r="G38" t="n">
         <v>1.028833333333334</v>
@@ -1740,19 +1740,23 @@
         <v>1.03</v>
       </c>
       <c r="F39" t="n">
-        <v>102.7601</v>
+        <v>143.732</v>
       </c>
       <c r="G39" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.02</v>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
@@ -1775,20 +1779,28 @@
         <v>1.03</v>
       </c>
       <c r="F40" t="n">
-        <v>102.0464</v>
+        <v>102.7601</v>
       </c>
       <c r="G40" t="n">
         <v>1.029000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1810,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F41" t="n">
-        <v>117.2199</v>
+        <v>102.0464</v>
       </c>
       <c r="G41" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1834,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F42" t="n">
-        <v>108.3466</v>
+        <v>117.2199</v>
       </c>
       <c r="G42" t="n">
-        <v>1.029000000000001</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1886,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F43" t="n">
-        <v>102.5765</v>
+        <v>108.3466</v>
       </c>
       <c r="G43" t="n">
-        <v>1.028833333333334</v>
+        <v>1.029000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1933,10 @@
         <v>1.02</v>
       </c>
       <c r="F44" t="n">
-        <v>427684.8712</v>
+        <v>102.5765</v>
       </c>
       <c r="G44" t="n">
-        <v>1.028666666666668</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E45" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F45" t="n">
-        <v>102.2185</v>
+        <v>427684.8712</v>
       </c>
       <c r="G45" t="n">
-        <v>1.028833333333334</v>
+        <v>1.028666666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,16 +1994,16 @@
         <v>1.03</v>
       </c>
       <c r="C46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D46" t="n">
         <v>1.03</v>
       </c>
       <c r="E46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F46" t="n">
-        <v>427793.3821</v>
+        <v>102.2185</v>
       </c>
       <c r="G46" t="n">
         <v>1.028833333333334</v>
@@ -2008,22 +2026,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C47" t="n">
         <v>1.02</v>
       </c>
       <c r="D47" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E47" t="n">
         <v>1.02</v>
       </c>
       <c r="F47" t="n">
-        <v>111.5069</v>
+        <v>427793.3821</v>
       </c>
       <c r="G47" t="n">
-        <v>1.028666666666668</v>
+        <v>1.028833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2073,10 @@
         <v>1.02</v>
       </c>
       <c r="F48" t="n">
-        <v>102.2925</v>
+        <v>111.5069</v>
       </c>
       <c r="G48" t="n">
-        <v>1.028500000000001</v>
+        <v>1.028666666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2108,10 @@
         <v>1.02</v>
       </c>
       <c r="F49" t="n">
-        <v>145.1596</v>
+        <v>102.2925</v>
       </c>
       <c r="G49" t="n">
-        <v>1.028333333333334</v>
+        <v>1.028500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2143,10 @@
         <v>1.02</v>
       </c>
       <c r="F50" t="n">
-        <v>371407.7669</v>
+        <v>145.1596</v>
       </c>
       <c r="G50" t="n">
-        <v>1.028166666666668</v>
+        <v>1.028333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2178,10 @@
         <v>1.02</v>
       </c>
       <c r="F51" t="n">
-        <v>146.5324</v>
+        <v>371407.7669</v>
       </c>
       <c r="G51" t="n">
-        <v>1.028000000000001</v>
+        <v>1.028166666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2213,10 @@
         <v>1.02</v>
       </c>
       <c r="F52" t="n">
-        <v>138.3754</v>
+        <v>146.5324</v>
       </c>
       <c r="G52" t="n">
-        <v>1.027833333333334</v>
+        <v>1.028000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,23 +2248,19 @@
         <v>1.02</v>
       </c>
       <c r="F53" t="n">
-        <v>137.9443</v>
+        <v>138.3754</v>
       </c>
       <c r="G53" t="n">
-        <v>1.027666666666668</v>
+        <v>1.027833333333334</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2269,28 +2283,20 @@
         <v>1.02</v>
       </c>
       <c r="F54" t="n">
-        <v>104.6386</v>
+        <v>137.9443</v>
       </c>
       <c r="G54" t="n">
-        <v>1.027500000000001</v>
+        <v>1.027666666666668</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,40 +2306,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F55" t="n">
-        <v>139.5702</v>
+        <v>104.6386</v>
       </c>
       <c r="G55" t="n">
         <v>1.027500000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2343,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F56" t="n">
-        <v>109.8374</v>
+        <v>139.5702</v>
       </c>
       <c r="G56" t="n">
-        <v>1.027333333333335</v>
+        <v>1.027500000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2378,19 +2376,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E57" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F57" t="n">
-        <v>118.1137</v>
+        <v>109.8374</v>
       </c>
       <c r="G57" t="n">
         <v>1.027333333333335</v>
@@ -2425,7 +2423,7 @@
         <v>1.03</v>
       </c>
       <c r="F58" t="n">
-        <v>108.4951</v>
+        <v>118.1137</v>
       </c>
       <c r="G58" t="n">
         <v>1.027333333333335</v>
@@ -2460,7 +2458,7 @@
         <v>1.03</v>
       </c>
       <c r="F59" t="n">
-        <v>128.6225</v>
+        <v>108.4951</v>
       </c>
       <c r="G59" t="n">
         <v>1.027333333333335</v>
@@ -2495,7 +2493,7 @@
         <v>1.03</v>
       </c>
       <c r="F60" t="n">
-        <v>127.6081</v>
+        <v>128.6225</v>
       </c>
       <c r="G60" t="n">
         <v>1.027333333333335</v>
@@ -2518,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E61" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F61" t="n">
-        <v>145.512</v>
+        <v>127.6081</v>
       </c>
       <c r="G61" t="n">
-        <v>1.027166666666668</v>
+        <v>1.027333333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2565,10 +2563,10 @@
         <v>1.02</v>
       </c>
       <c r="F62" t="n">
-        <v>102.5196</v>
+        <v>145.512</v>
       </c>
       <c r="G62" t="n">
-        <v>1.027000000000001</v>
+        <v>1.027166666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2588,19 +2586,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F63" t="n">
-        <v>127.5645</v>
+        <v>102.5196</v>
       </c>
       <c r="G63" t="n">
         <v>1.027000000000001</v>
@@ -2623,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E64" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F64" t="n">
-        <v>104.7038</v>
+        <v>127.5645</v>
       </c>
       <c r="G64" t="n">
-        <v>1.026833333333335</v>
+        <v>1.027000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2658,19 +2656,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F65" t="n">
-        <v>132.7976</v>
+        <v>104.7038</v>
       </c>
       <c r="G65" t="n">
         <v>1.026833333333335</v>
@@ -2693,22 +2691,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E66" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F66" t="n">
-        <v>100.9546</v>
+        <v>132.7976</v>
       </c>
       <c r="G66" t="n">
-        <v>1.026666666666668</v>
+        <v>1.026833333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2728,19 +2726,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F67" t="n">
-        <v>111.0556</v>
+        <v>100.9546</v>
       </c>
       <c r="G67" t="n">
         <v>1.026666666666668</v>
@@ -2763,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F68" t="n">
-        <v>126.1299</v>
+        <v>111.0556</v>
       </c>
       <c r="G68" t="n">
-        <v>1.026500000000002</v>
+        <v>1.026666666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2798,19 +2796,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E69" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F69" t="n">
-        <v>146.4538</v>
+        <v>126.1299</v>
       </c>
       <c r="G69" t="n">
         <v>1.026500000000002</v>
@@ -2833,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F70" t="n">
-        <v>148.1019</v>
+        <v>146.4538</v>
       </c>
       <c r="G70" t="n">
-        <v>1.026333333333335</v>
+        <v>1.026500000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2868,19 +2866,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E71" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F71" t="n">
-        <v>132.1381</v>
+        <v>148.1019</v>
       </c>
       <c r="G71" t="n">
         <v>1.026333333333335</v>
@@ -2915,7 +2913,7 @@
         <v>1.03</v>
       </c>
       <c r="F72" t="n">
-        <v>108.798</v>
+        <v>132.1381</v>
       </c>
       <c r="G72" t="n">
         <v>1.026333333333335</v>
@@ -2950,7 +2948,7 @@
         <v>1.03</v>
       </c>
       <c r="F73" t="n">
-        <v>106.2173</v>
+        <v>108.798</v>
       </c>
       <c r="G73" t="n">
         <v>1.026333333333335</v>
@@ -2985,7 +2983,7 @@
         <v>1.03</v>
       </c>
       <c r="F74" t="n">
-        <v>138.084</v>
+        <v>106.2173</v>
       </c>
       <c r="G74" t="n">
         <v>1.026333333333335</v>
@@ -3008,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E75" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F75" t="n">
-        <v>792233.0096</v>
+        <v>138.084</v>
       </c>
       <c r="G75" t="n">
-        <v>1.026166666666668</v>
+        <v>1.026333333333335</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3055,10 +3053,10 @@
         <v>1.02</v>
       </c>
       <c r="F76" t="n">
-        <v>123.1361</v>
+        <v>792233.0096</v>
       </c>
       <c r="G76" t="n">
-        <v>1.026000000000002</v>
+        <v>1.026166666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3078,19 +3076,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F77" t="n">
-        <v>111.1978</v>
+        <v>123.1361</v>
       </c>
       <c r="G77" t="n">
         <v>1.026000000000002</v>
@@ -3113,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F78" t="n">
-        <v>149.8502</v>
+        <v>111.1978</v>
       </c>
       <c r="G78" t="n">
-        <v>1.025833333333335</v>
+        <v>1.026000000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3157,13 +3155,13 @@
         <v>1.02</v>
       </c>
       <c r="E79" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F79" t="n">
-        <v>7815934.3582</v>
+        <v>149.8502</v>
       </c>
       <c r="G79" t="n">
-        <v>1.025666666666668</v>
+        <v>1.025833333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3192,13 +3190,13 @@
         <v>1.02</v>
       </c>
       <c r="E80" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F80" t="n">
-        <v>142.6469</v>
+        <v>7815934.3582</v>
       </c>
       <c r="G80" t="n">
-        <v>1.025500000000002</v>
+        <v>1.025666666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3218,19 +3216,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F81" t="n">
-        <v>111.8047</v>
+        <v>142.6469</v>
       </c>
       <c r="G81" t="n">
         <v>1.025500000000002</v>
@@ -3265,7 +3263,7 @@
         <v>1.03</v>
       </c>
       <c r="F82" t="n">
-        <v>115.8669</v>
+        <v>111.8047</v>
       </c>
       <c r="G82" t="n">
         <v>1.025500000000002</v>
@@ -3288,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E83" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F83" t="n">
-        <v>171137.3531</v>
+        <v>115.8669</v>
       </c>
       <c r="G83" t="n">
-        <v>1.025333333333335</v>
+        <v>1.025500000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3323,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E84" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F84" t="n">
-        <v>102.6261</v>
+        <v>171137.3531</v>
       </c>
       <c r="G84" t="n">
-        <v>1.025000000000002</v>
+        <v>1.025333333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3370,10 +3368,10 @@
         <v>1.01</v>
       </c>
       <c r="F85" t="n">
-        <v>136.221</v>
+        <v>102.6261</v>
       </c>
       <c r="G85" t="n">
-        <v>1.024666666666668</v>
+        <v>1.025000000000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3405,10 +3403,10 @@
         <v>1.01</v>
       </c>
       <c r="F86" t="n">
-        <v>2961990.7491</v>
+        <v>136.221</v>
       </c>
       <c r="G86" t="n">
-        <v>1.024333333333335</v>
+        <v>1.024666666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3440,10 +3438,10 @@
         <v>1.01</v>
       </c>
       <c r="F87" t="n">
-        <v>136.9983</v>
+        <v>2961990.7491</v>
       </c>
       <c r="G87" t="n">
-        <v>1.024000000000002</v>
+        <v>1.024333333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3466,19 +3464,19 @@
         <v>1.01</v>
       </c>
       <c r="C88" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D88" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E88" t="n">
         <v>1.01</v>
       </c>
       <c r="F88" t="n">
-        <v>2606391.572</v>
+        <v>136.9983</v>
       </c>
       <c r="G88" t="n">
-        <v>1.023833333333335</v>
+        <v>1.024000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3498,7 +3496,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C89" t="n">
         <v>1.02</v>
@@ -3507,26 +3505,22 @@
         <v>1.02</v>
       </c>
       <c r="E89" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F89" t="n">
-        <v>141.246</v>
+        <v>2606391.572</v>
       </c>
       <c r="G89" t="n">
-        <v>1.023666666666668</v>
+        <v>1.023833333333335</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3549,10 +3543,10 @@
         <v>1.02</v>
       </c>
       <c r="F90" t="n">
-        <v>109.4214</v>
+        <v>141.246</v>
       </c>
       <c r="G90" t="n">
-        <v>1.023500000000002</v>
+        <v>1.023666666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3561,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3578,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E91" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F91" t="n">
-        <v>134.8168</v>
+        <v>109.4214</v>
       </c>
       <c r="G91" t="n">
-        <v>1.023333333333335</v>
+        <v>1.023500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3602,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3631,10 +3613,10 @@
         <v>1.01</v>
       </c>
       <c r="F92" t="n">
-        <v>111.8385</v>
+        <v>134.8168</v>
       </c>
       <c r="G92" t="n">
-        <v>1.023000000000001</v>
+        <v>1.023333333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3654,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E93" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F93" t="n">
-        <v>119.8895</v>
+        <v>111.8385</v>
       </c>
       <c r="G93" t="n">
-        <v>1.022833333333335</v>
+        <v>1.023000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3701,10 +3683,10 @@
         <v>1.02</v>
       </c>
       <c r="F94" t="n">
-        <v>132.0386</v>
+        <v>119.8895</v>
       </c>
       <c r="G94" t="n">
-        <v>1.022666666666668</v>
+        <v>1.022833333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3724,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F95" t="n">
-        <v>145.0538</v>
+        <v>132.0386</v>
       </c>
       <c r="G95" t="n">
-        <v>1.022500000000002</v>
+        <v>1.022666666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3771,10 +3753,10 @@
         <v>1.01</v>
       </c>
       <c r="F96" t="n">
-        <v>149.5557</v>
+        <v>145.0538</v>
       </c>
       <c r="G96" t="n">
-        <v>1.022166666666668</v>
+        <v>1.022500000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3794,19 +3776,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E97" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F97" t="n">
-        <v>133.5152</v>
+        <v>149.5557</v>
       </c>
       <c r="G97" t="n">
         <v>1.022166666666668</v>
@@ -3832,19 +3814,19 @@
         <v>1.02</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D98" t="n">
         <v>1.02</v>
       </c>
       <c r="E98" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F98" t="n">
-        <v>159.7566</v>
+        <v>133.5152</v>
       </c>
       <c r="G98" t="n">
-        <v>1.021833333333335</v>
+        <v>1.022166666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3867,19 +3849,19 @@
         <v>1.02</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D99" t="n">
         <v>1.02</v>
       </c>
       <c r="E99" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F99" t="n">
-        <v>100.8525</v>
+        <v>159.7566</v>
       </c>
       <c r="G99" t="n">
-        <v>1.021666666666668</v>
+        <v>1.021833333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3911,10 +3893,10 @@
         <v>1.02</v>
       </c>
       <c r="F100" t="n">
-        <v>340631.3725</v>
+        <v>100.8525</v>
       </c>
       <c r="G100" t="n">
-        <v>1.021500000000001</v>
+        <v>1.021666666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3946,7 +3928,7 @@
         <v>1.02</v>
       </c>
       <c r="F101" t="n">
-        <v>130.4192</v>
+        <v>340631.3725</v>
       </c>
       <c r="G101" t="n">
         <v>1.021500000000001</v>
@@ -3969,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E102" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F102" t="n">
-        <v>1000000</v>
+        <v>130.4192</v>
       </c>
       <c r="G102" t="n">
-        <v>1.021166666666668</v>
+        <v>1.021500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4004,19 +3986,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E103" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>1000000</v>
       </c>
       <c r="G103" t="n">
         <v>1.021166666666668</v>
@@ -4051,7 +4033,7 @@
         <v>1.02</v>
       </c>
       <c r="F104" t="n">
-        <v>107.8754</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
         <v>1.021166666666668</v>
@@ -4074,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E105" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F105" t="n">
-        <v>100149.1787</v>
+        <v>107.8754</v>
       </c>
       <c r="G105" t="n">
-        <v>1.020833333333335</v>
+        <v>1.021166666666668</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4121,10 +4103,10 @@
         <v>1.01</v>
       </c>
       <c r="F106" t="n">
-        <v>143.7818</v>
+        <v>100149.1787</v>
       </c>
       <c r="G106" t="n">
-        <v>1.020666666666668</v>
+        <v>1.020833333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4156,10 +4138,10 @@
         <v>1.01</v>
       </c>
       <c r="F107" t="n">
-        <v>2170527.2201</v>
+        <v>143.7818</v>
       </c>
       <c r="G107" t="n">
-        <v>1.020500000000001</v>
+        <v>1.020666666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4191,10 +4173,10 @@
         <v>1.01</v>
       </c>
       <c r="F108" t="n">
-        <v>1062829.014</v>
+        <v>2170527.2201</v>
       </c>
       <c r="G108" t="n">
-        <v>1.020333333333334</v>
+        <v>1.020500000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4226,10 +4208,10 @@
         <v>1.01</v>
       </c>
       <c r="F109" t="n">
-        <v>210914.068</v>
+        <v>1062829.014</v>
       </c>
       <c r="G109" t="n">
-        <v>1.020166666666668</v>
+        <v>1.020333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4249,19 +4231,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E110" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F110" t="n">
-        <v>117.9442</v>
+        <v>210914.068</v>
       </c>
       <c r="G110" t="n">
         <v>1.020166666666668</v>
@@ -4296,7 +4278,7 @@
         <v>1.02</v>
       </c>
       <c r="F111" t="n">
-        <v>100000</v>
+        <v>117.9442</v>
       </c>
       <c r="G111" t="n">
         <v>1.020166666666668</v>
@@ -4354,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E113" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F113" t="n">
-        <v>144.1824</v>
+        <v>100000</v>
       </c>
       <c r="G113" t="n">
-        <v>1.020000000000001</v>
+        <v>1.020166666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4389,19 +4371,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F114" t="n">
-        <v>141.1577</v>
+        <v>144.1824</v>
       </c>
       <c r="G114" t="n">
         <v>1.020000000000001</v>
@@ -4424,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E115" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F115" t="n">
-        <v>111.2282</v>
+        <v>141.1577</v>
       </c>
       <c r="G115" t="n">
-        <v>1.019666666666667</v>
+        <v>1.020000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4459,19 +4441,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E116" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>111.2282</v>
       </c>
       <c r="G116" t="n">
         <v>1.019666666666667</v>
@@ -4506,10 +4488,10 @@
         <v>1.02</v>
       </c>
       <c r="F117" t="n">
-        <v>119.9437</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>1.019500000000001</v>
+        <v>1.019666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4541,10 +4523,10 @@
         <v>1.02</v>
       </c>
       <c r="F118" t="n">
-        <v>134.6292</v>
+        <v>119.9437</v>
       </c>
       <c r="G118" t="n">
-        <v>1.019333333333334</v>
+        <v>1.019500000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4576,10 +4558,10 @@
         <v>1.02</v>
       </c>
       <c r="F119" t="n">
-        <v>104.5454</v>
+        <v>134.6292</v>
       </c>
       <c r="G119" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4611,10 +4593,10 @@
         <v>1.02</v>
       </c>
       <c r="F120" t="n">
-        <v>1943600</v>
+        <v>104.5454</v>
       </c>
       <c r="G120" t="n">
-        <v>1.019000000000001</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4634,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D121" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F121" t="n">
-        <v>1324169.9767</v>
+        <v>1943600</v>
       </c>
       <c r="G121" t="n">
-        <v>1.018666666666667</v>
+        <v>1.019000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4669,19 +4651,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E122" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>1324169.9767</v>
       </c>
       <c r="G122" t="n">
         <v>1.018666666666667</v>
@@ -4716,10 +4698,10 @@
         <v>1.02</v>
       </c>
       <c r="F123" t="n">
-        <v>101.1047</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>1.018500000000001</v>
+        <v>1.018666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4751,7 +4733,7 @@
         <v>1.02</v>
       </c>
       <c r="F124" t="n">
-        <v>141.8797</v>
+        <v>101.1047</v>
       </c>
       <c r="G124" t="n">
         <v>1.018500000000001</v>
@@ -4786,10 +4768,10 @@
         <v>1.02</v>
       </c>
       <c r="F125" t="n">
-        <v>137.9027</v>
+        <v>141.8797</v>
       </c>
       <c r="G125" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018500000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4809,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E126" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F126" t="n">
-        <v>113.041</v>
+        <v>137.9027</v>
       </c>
       <c r="G126" t="n">
-        <v>1.018166666666668</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4856,10 +4838,10 @@
         <v>1.01</v>
       </c>
       <c r="F127" t="n">
-        <v>111.0053</v>
+        <v>113.041</v>
       </c>
       <c r="G127" t="n">
-        <v>1.017833333333334</v>
+        <v>1.018166666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4891,10 +4873,10 @@
         <v>1.01</v>
       </c>
       <c r="F128" t="n">
-        <v>5000</v>
+        <v>111.0053</v>
       </c>
       <c r="G128" t="n">
-        <v>1.017666666666667</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4926,10 +4908,10 @@
         <v>1.01</v>
       </c>
       <c r="F129" t="n">
-        <v>111.1953</v>
+        <v>5000</v>
       </c>
       <c r="G129" t="n">
-        <v>1.017333333333334</v>
+        <v>1.017666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4961,10 +4943,10 @@
         <v>1.01</v>
       </c>
       <c r="F130" t="n">
-        <v>137.6274</v>
+        <v>111.1953</v>
       </c>
       <c r="G130" t="n">
-        <v>1.017166666666667</v>
+        <v>1.017333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4984,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E131" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F131" t="n">
-        <v>147.4359</v>
+        <v>137.6274</v>
       </c>
       <c r="G131" t="n">
-        <v>1.017000000000001</v>
+        <v>1.017166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5019,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E132" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F132" t="n">
-        <v>119.7979</v>
+        <v>147.4359</v>
       </c>
       <c r="G132" t="n">
-        <v>1.016666666666667</v>
+        <v>1.017000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5066,10 +5048,10 @@
         <v>1.01</v>
       </c>
       <c r="F133" t="n">
-        <v>301.581</v>
+        <v>119.7979</v>
       </c>
       <c r="G133" t="n">
-        <v>1.016333333333334</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5089,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C134" t="n">
         <v>1.01</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E134" t="n">
         <v>1.01</v>
       </c>
       <c r="F134" t="n">
-        <v>124.3941</v>
+        <v>301.581</v>
       </c>
       <c r="G134" t="n">
-        <v>1.016</v>
+        <v>1.016333333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5127,16 +5109,16 @@
         <v>1.02</v>
       </c>
       <c r="C135" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D135" t="n">
         <v>1.02</v>
       </c>
       <c r="E135" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F135" t="n">
-        <v>3327</v>
+        <v>124.3941</v>
       </c>
       <c r="G135" t="n">
         <v>1.016</v>
@@ -5162,19 +5144,19 @@
         <v>1.02</v>
       </c>
       <c r="C136" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D136" t="n">
         <v>1.02</v>
       </c>
       <c r="E136" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F136" t="n">
-        <v>300143.929</v>
+        <v>3327</v>
       </c>
       <c r="G136" t="n">
-        <v>1.015833333333334</v>
+        <v>1.016</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5197,19 +5179,19 @@
         <v>1.02</v>
       </c>
       <c r="C137" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D137" t="n">
         <v>1.02</v>
       </c>
       <c r="E137" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F137" t="n">
-        <v>132.8454</v>
+        <v>300143.929</v>
       </c>
       <c r="G137" t="n">
-        <v>1.015666666666667</v>
+        <v>1.015833333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5241,7 +5223,7 @@
         <v>1.02</v>
       </c>
       <c r="F138" t="n">
-        <v>1358060.1596</v>
+        <v>132.8454</v>
       </c>
       <c r="G138" t="n">
         <v>1.015666666666667</v>
@@ -5276,7 +5258,7 @@
         <v>1.02</v>
       </c>
       <c r="F139" t="n">
-        <v>139.3331</v>
+        <v>1358060.1596</v>
       </c>
       <c r="G139" t="n">
         <v>1.015666666666667</v>
@@ -5311,7 +5293,7 @@
         <v>1.02</v>
       </c>
       <c r="F140" t="n">
-        <v>99040.6669</v>
+        <v>139.3331</v>
       </c>
       <c r="G140" t="n">
         <v>1.015666666666667</v>
@@ -5334,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E141" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F141" t="n">
-        <v>118.5848</v>
+        <v>99040.6669</v>
       </c>
       <c r="G141" t="n">
-        <v>1.015333333333334</v>
+        <v>1.015666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5369,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E142" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F142" t="n">
-        <v>292209.094</v>
+        <v>118.5848</v>
       </c>
       <c r="G142" t="n">
-        <v>1.015166666666667</v>
+        <v>1.015333333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5404,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E143" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F143" t="n">
-        <v>142.7404</v>
+        <v>292209.094</v>
       </c>
       <c r="G143" t="n">
-        <v>1.015333333333334</v>
+        <v>1.015166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5439,22 +5421,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F144" t="n">
-        <v>1032777.4509</v>
+        <v>142.7404</v>
       </c>
       <c r="G144" t="n">
-        <v>1.015500000000001</v>
+        <v>1.015333333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5486,10 +5468,10 @@
         <v>1.02</v>
       </c>
       <c r="F145" t="n">
-        <v>102.598</v>
+        <v>1032777.4509</v>
       </c>
       <c r="G145" t="n">
-        <v>1.015666666666667</v>
+        <v>1.015500000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5509,19 +5491,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E146" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F146" t="n">
-        <v>126.6551</v>
+        <v>102.598</v>
       </c>
       <c r="G146" t="n">
         <v>1.015666666666667</v>
@@ -5530,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5544,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E147" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F147" t="n">
-        <v>147.8412</v>
+        <v>126.6551</v>
       </c>
       <c r="G147" t="n">
-        <v>1.015833333333334</v>
+        <v>1.015666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5591,7 +5573,7 @@
         <v>1.02</v>
       </c>
       <c r="F148" t="n">
-        <v>92337391.71250001</v>
+        <v>147.8412</v>
       </c>
       <c r="G148" t="n">
         <v>1.015833333333334</v>
@@ -5626,7 +5608,7 @@
         <v>1.02</v>
       </c>
       <c r="F149" t="n">
-        <v>414400000</v>
+        <v>92337391.71250001</v>
       </c>
       <c r="G149" t="n">
         <v>1.015833333333334</v>
@@ -5661,7 +5643,7 @@
         <v>1.02</v>
       </c>
       <c r="F150" t="n">
-        <v>420800000</v>
+        <v>414400000</v>
       </c>
       <c r="G150" t="n">
         <v>1.015833333333334</v>
@@ -5684,22 +5666,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E151" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>420800000</v>
       </c>
       <c r="G151" t="n">
-        <v>1.016166666666667</v>
+        <v>1.015833333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5731,10 +5713,10 @@
         <v>1.03</v>
       </c>
       <c r="F152" t="n">
-        <v>5242</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>1.016500000000001</v>
+        <v>1.016166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5766,10 +5748,10 @@
         <v>1.03</v>
       </c>
       <c r="F153" t="n">
-        <v>114.723</v>
+        <v>5242</v>
       </c>
       <c r="G153" t="n">
-        <v>1.016666666666667</v>
+        <v>1.016500000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5789,19 +5771,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E154" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F154" t="n">
-        <v>134.0324</v>
+        <v>114.723</v>
       </c>
       <c r="G154" t="n">
         <v>1.016666666666667</v>
@@ -5824,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F155" t="n">
-        <v>124.1717</v>
+        <v>134.0324</v>
       </c>
       <c r="G155" t="n">
-        <v>1.017000000000001</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5859,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E156" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F156" t="n">
-        <v>133.7193</v>
+        <v>124.1717</v>
       </c>
       <c r="G156" t="n">
-        <v>1.017166666666667</v>
+        <v>1.017000000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5894,22 +5876,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E157" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F157" t="n">
-        <v>122.119</v>
+        <v>133.7193</v>
       </c>
       <c r="G157" t="n">
-        <v>1.017333333333334</v>
+        <v>1.017166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5941,10 +5923,10 @@
         <v>1.03</v>
       </c>
       <c r="F158" t="n">
-        <v>122.6711</v>
+        <v>122.119</v>
       </c>
       <c r="G158" t="n">
-        <v>1.017666666666668</v>
+        <v>1.017333333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5976,10 +5958,10 @@
         <v>1.03</v>
       </c>
       <c r="F159" t="n">
-        <v>140.3705</v>
+        <v>122.6711</v>
       </c>
       <c r="G159" t="n">
-        <v>1.017833333333334</v>
+        <v>1.017666666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5999,19 +5981,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E160" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F160" t="n">
-        <v>127.7249</v>
+        <v>140.3705</v>
       </c>
       <c r="G160" t="n">
         <v>1.017833333333334</v>
@@ -6046,7 +6028,7 @@
         <v>1.02</v>
       </c>
       <c r="F161" t="n">
-        <v>113715</v>
+        <v>127.7249</v>
       </c>
       <c r="G161" t="n">
         <v>1.017833333333334</v>
@@ -6069,22 +6051,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C162" t="n">
         <v>1.02</v>
       </c>
       <c r="D162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E162" t="n">
         <v>1.02</v>
       </c>
       <c r="F162" t="n">
-        <v>1800010</v>
+        <v>113715</v>
       </c>
       <c r="G162" t="n">
-        <v>1.018000000000001</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6107,19 +6089,19 @@
         <v>1.03</v>
       </c>
       <c r="C163" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D163" t="n">
         <v>1.03</v>
       </c>
       <c r="E163" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>1800010</v>
       </c>
       <c r="G163" t="n">
-        <v>1.018166666666668</v>
+        <v>1.018000000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6139,19 +6121,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E164" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F164" t="n">
-        <v>132.6129</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
         <v>1.018166666666668</v>
@@ -6186,10 +6168,10 @@
         <v>1.02</v>
       </c>
       <c r="F165" t="n">
-        <v>127.8485</v>
+        <v>132.6129</v>
       </c>
       <c r="G165" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018166666666668</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6209,22 +6191,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E166" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F166" t="n">
-        <v>105.6799</v>
+        <v>127.8485</v>
       </c>
       <c r="G166" t="n">
-        <v>1.018666666666668</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6247,19 +6229,19 @@
         <v>1.03</v>
       </c>
       <c r="C167" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D167" t="n">
         <v>1.03</v>
       </c>
       <c r="E167" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F167" t="n">
-        <v>3301121.6776</v>
+        <v>105.6799</v>
       </c>
       <c r="G167" t="n">
-        <v>1.018833333333334</v>
+        <v>1.018666666666668</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6282,19 +6264,19 @@
         <v>1.03</v>
       </c>
       <c r="C168" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D168" t="n">
         <v>1.03</v>
       </c>
       <c r="E168" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F168" t="n">
-        <v>256104.8543</v>
+        <v>3301121.6776</v>
       </c>
       <c r="G168" t="n">
-        <v>1.019166666666668</v>
+        <v>1.018833333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6314,22 +6296,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E169" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F169" t="n">
-        <v>104.9803</v>
+        <v>256104.8543</v>
       </c>
       <c r="G169" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6361,7 +6343,7 @@
         <v>1.02</v>
       </c>
       <c r="F170" t="n">
-        <v>103.9822</v>
+        <v>104.9803</v>
       </c>
       <c r="G170" t="n">
         <v>1.019333333333335</v>
@@ -6396,7 +6378,7 @@
         <v>1.02</v>
       </c>
       <c r="F171" t="n">
-        <v>108.864</v>
+        <v>103.9822</v>
       </c>
       <c r="G171" t="n">
         <v>1.019333333333335</v>
@@ -6431,7 +6413,7 @@
         <v>1.02</v>
       </c>
       <c r="F172" t="n">
-        <v>311939.9088</v>
+        <v>108.864</v>
       </c>
       <c r="G172" t="n">
         <v>1.019333333333335</v>
@@ -6454,22 +6436,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E173" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F173" t="n">
-        <v>146.8229</v>
+        <v>311939.9088</v>
       </c>
       <c r="G173" t="n">
-        <v>1.019666666666668</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6489,19 +6471,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E174" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F174" t="n">
-        <v>144.9517</v>
+        <v>146.8229</v>
       </c>
       <c r="G174" t="n">
         <v>1.019666666666668</v>
@@ -6536,10 +6518,10 @@
         <v>1.02</v>
       </c>
       <c r="F175" t="n">
-        <v>141.062</v>
+        <v>144.9517</v>
       </c>
       <c r="G175" t="n">
-        <v>1.019833333333335</v>
+        <v>1.019666666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6559,22 +6541,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E176" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F176" t="n">
-        <v>106.1025</v>
+        <v>141.062</v>
       </c>
       <c r="G176" t="n">
-        <v>1.020000000000001</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6606,10 +6588,10 @@
         <v>1.03</v>
       </c>
       <c r="F177" t="n">
-        <v>123.5703</v>
+        <v>106.1025</v>
       </c>
       <c r="G177" t="n">
-        <v>1.020166666666668</v>
+        <v>1.020000000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6629,19 +6611,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E178" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F178" t="n">
-        <v>100.1822</v>
+        <v>123.5703</v>
       </c>
       <c r="G178" t="n">
         <v>1.020166666666668</v>
@@ -6676,7 +6658,7 @@
         <v>1.02</v>
       </c>
       <c r="F179" t="n">
-        <v>145.0574</v>
+        <v>100.1822</v>
       </c>
       <c r="G179" t="n">
         <v>1.020166666666668</v>
@@ -6699,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E180" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F180" t="n">
-        <v>134.3059</v>
+        <v>145.0574</v>
       </c>
       <c r="G180" t="n">
-        <v>1.020333333333335</v>
+        <v>1.020166666666668</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6746,10 +6728,10 @@
         <v>1.03</v>
       </c>
       <c r="F181" t="n">
-        <v>116.9298</v>
+        <v>134.3059</v>
       </c>
       <c r="G181" t="n">
-        <v>1.020833333333335</v>
+        <v>1.020333333333335</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6781,10 +6763,10 @@
         <v>1.03</v>
       </c>
       <c r="F182" t="n">
-        <v>798.0582000000001</v>
+        <v>116.9298</v>
       </c>
       <c r="G182" t="n">
-        <v>1.021000000000001</v>
+        <v>1.020833333333335</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6816,10 +6798,10 @@
         <v>1.03</v>
       </c>
       <c r="F183" t="n">
-        <v>131.7329</v>
+        <v>798.0582000000001</v>
       </c>
       <c r="G183" t="n">
-        <v>1.021166666666668</v>
+        <v>1.021000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6851,10 +6833,10 @@
         <v>1.03</v>
       </c>
       <c r="F184" t="n">
-        <v>27043.6893</v>
+        <v>131.7329</v>
       </c>
       <c r="G184" t="n">
-        <v>1.021333333333335</v>
+        <v>1.021166666666668</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6874,19 +6856,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E185" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F185" t="n">
-        <v>132.7274</v>
+        <v>27043.6893</v>
       </c>
       <c r="G185" t="n">
         <v>1.021333333333335</v>
@@ -6909,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E186" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F186" t="n">
-        <v>108.3098</v>
+        <v>132.7274</v>
       </c>
       <c r="G186" t="n">
-        <v>1.021666666666668</v>
+        <v>1.021333333333335</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6944,22 +6926,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E187" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F187" t="n">
-        <v>146.6648</v>
+        <v>108.3098</v>
       </c>
       <c r="G187" t="n">
-        <v>1.021833333333335</v>
+        <v>1.021666666666668</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6979,22 +6961,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E188" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F188" t="n">
-        <v>139.0033</v>
+        <v>146.6648</v>
       </c>
       <c r="G188" t="n">
-        <v>1.022166666666668</v>
+        <v>1.021833333333335</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7014,22 +6996,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E189" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F189" t="n">
-        <v>106.0937</v>
+        <v>139.0033</v>
       </c>
       <c r="G189" t="n">
-        <v>1.022333333333335</v>
+        <v>1.022166666666668</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7049,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E190" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F190" t="n">
-        <v>149.5126</v>
+        <v>106.0937</v>
       </c>
       <c r="G190" t="n">
-        <v>1.022666666666668</v>
+        <v>1.022333333333335</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7084,19 +7066,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E191" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F191" t="n">
-        <v>102.6596</v>
+        <v>149.5126</v>
       </c>
       <c r="G191" t="n">
         <v>1.022666666666668</v>
@@ -7119,22 +7101,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E192" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F192" t="n">
-        <v>105.6283</v>
+        <v>102.6596</v>
       </c>
       <c r="G192" t="n">
-        <v>1.023000000000002</v>
+        <v>1.022666666666668</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7154,22 +7136,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E193" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F193" t="n">
-        <v>1056030.6299</v>
+        <v>105.6283</v>
       </c>
       <c r="G193" t="n">
-        <v>1.023166666666668</v>
+        <v>1.023000000000002</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7201,10 +7183,10 @@
         <v>1.02</v>
       </c>
       <c r="F194" t="n">
-        <v>859385.03</v>
+        <v>1056030.6299</v>
       </c>
       <c r="G194" t="n">
-        <v>1.023333333333335</v>
+        <v>1.023166666666668</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7236,7 +7218,7 @@
         <v>1.02</v>
       </c>
       <c r="F195" t="n">
-        <v>102.3458</v>
+        <v>859385.03</v>
       </c>
       <c r="G195" t="n">
         <v>1.023333333333335</v>
@@ -7259,19 +7241,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E196" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F196" t="n">
-        <v>200000</v>
+        <v>102.3458</v>
       </c>
       <c r="G196" t="n">
         <v>1.023333333333335</v>
@@ -7294,19 +7276,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E197" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F197" t="n">
-        <v>140512.6242</v>
+        <v>200000</v>
       </c>
       <c r="G197" t="n">
         <v>1.023333333333335</v>
@@ -7341,7 +7323,7 @@
         <v>1.02</v>
       </c>
       <c r="F198" t="n">
-        <v>592.6229</v>
+        <v>140512.6242</v>
       </c>
       <c r="G198" t="n">
         <v>1.023333333333335</v>
@@ -7367,19 +7349,19 @@
         <v>1.02</v>
       </c>
       <c r="C199" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D199" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E199" t="n">
         <v>1.02</v>
       </c>
       <c r="F199" t="n">
-        <v>1323643.88</v>
+        <v>592.6229</v>
       </c>
       <c r="G199" t="n">
-        <v>1.023500000000002</v>
+        <v>1.023333333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7411,10 +7393,10 @@
         <v>1.02</v>
       </c>
       <c r="F200" t="n">
-        <v>29776.016</v>
+        <v>1323643.88</v>
       </c>
       <c r="G200" t="n">
-        <v>1.023666666666668</v>
+        <v>1.023500000000002</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7437,19 +7419,19 @@
         <v>1.02</v>
       </c>
       <c r="C201" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D201" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E201" t="n">
         <v>1.02</v>
       </c>
       <c r="F201" t="n">
-        <v>192615.455</v>
+        <v>29776.016</v>
       </c>
       <c r="G201" t="n">
-        <v>1.023833333333335</v>
+        <v>1.023666666666668</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7478,10 +7460,10 @@
         <v>1.02</v>
       </c>
       <c r="E202" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F202" t="n">
-        <v>1255555.3771</v>
+        <v>192615.455</v>
       </c>
       <c r="G202" t="n">
         <v>1.023833333333335</v>
@@ -7513,13 +7495,13 @@
         <v>1.02</v>
       </c>
       <c r="E203" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F203" t="n">
-        <v>962171.066</v>
+        <v>1255555.3771</v>
       </c>
       <c r="G203" t="n">
-        <v>1.023666666666669</v>
+        <v>1.023833333333335</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7551,7 +7533,7 @@
         <v>1.02</v>
       </c>
       <c r="F204" t="n">
-        <v>1040424.882</v>
+        <v>962171.066</v>
       </c>
       <c r="G204" t="n">
         <v>1.023666666666669</v>
@@ -7586,7 +7568,7 @@
         <v>1.02</v>
       </c>
       <c r="F205" t="n">
-        <v>483900.811</v>
+        <v>1040424.882</v>
       </c>
       <c r="G205" t="n">
         <v>1.023666666666669</v>
@@ -7612,16 +7594,16 @@
         <v>1.02</v>
       </c>
       <c r="C206" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D206" t="n">
         <v>1.02</v>
       </c>
       <c r="E206" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F206" t="n">
-        <v>714694.0606</v>
+        <v>483900.811</v>
       </c>
       <c r="G206" t="n">
         <v>1.023666666666669</v>
@@ -7647,16 +7629,16 @@
         <v>1.02</v>
       </c>
       <c r="C207" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D207" t="n">
         <v>1.02</v>
       </c>
       <c r="E207" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F207" t="n">
-        <v>870940.334</v>
+        <v>714694.0606</v>
       </c>
       <c r="G207" t="n">
         <v>1.023666666666669</v>
@@ -7691,7 +7673,7 @@
         <v>1.02</v>
       </c>
       <c r="F208" t="n">
-        <v>2636904.142</v>
+        <v>870940.334</v>
       </c>
       <c r="G208" t="n">
         <v>1.023666666666669</v>
@@ -7726,7 +7708,7 @@
         <v>1.02</v>
       </c>
       <c r="F209" t="n">
-        <v>1641290.983</v>
+        <v>2636904.142</v>
       </c>
       <c r="G209" t="n">
         <v>1.023666666666669</v>
@@ -7761,7 +7743,7 @@
         <v>1.02</v>
       </c>
       <c r="F210" t="n">
-        <v>1147101.197</v>
+        <v>1641290.983</v>
       </c>
       <c r="G210" t="n">
         <v>1.023666666666669</v>
@@ -7787,19 +7769,19 @@
         <v>1.02</v>
       </c>
       <c r="C211" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D211" t="n">
         <v>1.02</v>
       </c>
       <c r="E211" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F211" t="n">
-        <v>1437942.0681</v>
+        <v>1147101.197</v>
       </c>
       <c r="G211" t="n">
-        <v>1.023333333333335</v>
+        <v>1.023666666666669</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7822,19 +7804,19 @@
         <v>1.02</v>
       </c>
       <c r="C212" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D212" t="n">
         <v>1.02</v>
       </c>
       <c r="E212" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F212" t="n">
-        <v>1862296.285</v>
+        <v>1437942.0681</v>
       </c>
       <c r="G212" t="n">
-        <v>1.023166666666669</v>
+        <v>1.023333333333335</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7866,10 +7848,10 @@
         <v>1.02</v>
       </c>
       <c r="F213" t="n">
-        <v>1961359.458</v>
+        <v>1862296.285</v>
       </c>
       <c r="G213" t="n">
-        <v>1.023000000000002</v>
+        <v>1.023166666666669</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7901,7 +7883,7 @@
         <v>1.02</v>
       </c>
       <c r="F214" t="n">
-        <v>2044104.045</v>
+        <v>1961359.458</v>
       </c>
       <c r="G214" t="n">
         <v>1.023000000000002</v>
@@ -7936,10 +7918,10 @@
         <v>1.02</v>
       </c>
       <c r="F215" t="n">
-        <v>2310150.601</v>
+        <v>2044104.045</v>
       </c>
       <c r="G215" t="n">
-        <v>1.022833333333335</v>
+        <v>1.023000000000002</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7959,22 +7941,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C216" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D216" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E216" t="n">
         <v>1.02</v>
       </c>
       <c r="F216" t="n">
-        <v>536047.1024</v>
+        <v>2310150.601</v>
       </c>
       <c r="G216" t="n">
-        <v>1.023000000000002</v>
+        <v>1.022833333333335</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7994,22 +7976,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C217" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D217" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E217" t="n">
         <v>1.02</v>
       </c>
       <c r="F217" t="n">
-        <v>756113.309</v>
+        <v>536047.1024</v>
       </c>
       <c r="G217" t="n">
-        <v>1.022833333333335</v>
+        <v>1.023000000000002</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8041,10 +8023,10 @@
         <v>1.02</v>
       </c>
       <c r="F218" t="n">
-        <v>832685.24</v>
+        <v>756113.309</v>
       </c>
       <c r="G218" t="n">
-        <v>1.022666666666669</v>
+        <v>1.022833333333335</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8076,10 +8058,10 @@
         <v>1.02</v>
       </c>
       <c r="F219" t="n">
-        <v>903489.394</v>
+        <v>832685.24</v>
       </c>
       <c r="G219" t="n">
-        <v>1.022500000000002</v>
+        <v>1.022666666666669</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8111,7 +8093,7 @@
         <v>1.02</v>
       </c>
       <c r="F220" t="n">
-        <v>29140.516</v>
+        <v>903489.394</v>
       </c>
       <c r="G220" t="n">
         <v>1.022500000000002</v>
@@ -8140,13 +8122,13 @@
         <v>1.02</v>
       </c>
       <c r="D221" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E221" t="n">
         <v>1.02</v>
       </c>
       <c r="F221" t="n">
-        <v>385970.5671</v>
+        <v>29140.516</v>
       </c>
       <c r="G221" t="n">
         <v>1.022500000000002</v>
@@ -8175,13 +8157,13 @@
         <v>1.02</v>
       </c>
       <c r="D222" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E222" t="n">
         <v>1.02</v>
       </c>
       <c r="F222" t="n">
-        <v>448793.581</v>
+        <v>385970.5671</v>
       </c>
       <c r="G222" t="n">
         <v>1.022500000000002</v>
@@ -8216,10 +8198,10 @@
         <v>1.02</v>
       </c>
       <c r="F223" t="n">
-        <v>579536.314</v>
+        <v>448793.581</v>
       </c>
       <c r="G223" t="n">
-        <v>1.022333333333335</v>
+        <v>1.022500000000002</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8251,7 +8233,7 @@
         <v>1.02</v>
       </c>
       <c r="F224" t="n">
-        <v>666708.551</v>
+        <v>579536.314</v>
       </c>
       <c r="G224" t="n">
         <v>1.022333333333335</v>
@@ -8286,7 +8268,7 @@
         <v>1.02</v>
       </c>
       <c r="F225" t="n">
-        <v>27793.703</v>
+        <v>666708.551</v>
       </c>
       <c r="G225" t="n">
         <v>1.022333333333335</v>
@@ -8312,19 +8294,19 @@
         <v>1.02</v>
       </c>
       <c r="C226" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D226" t="n">
         <v>1.02</v>
       </c>
       <c r="E226" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F226" t="n">
-        <v>134467.2547</v>
+        <v>27793.703</v>
       </c>
       <c r="G226" t="n">
-        <v>1.022000000000002</v>
+        <v>1.022333333333335</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8347,16 +8329,16 @@
         <v>1.02</v>
       </c>
       <c r="C227" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D227" t="n">
         <v>1.02</v>
       </c>
       <c r="E227" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F227" t="n">
-        <v>296218.563</v>
+        <v>134467.2547</v>
       </c>
       <c r="G227" t="n">
         <v>1.022000000000002</v>
@@ -8391,10 +8373,10 @@
         <v>1.02</v>
       </c>
       <c r="F228" t="n">
-        <v>943242.24</v>
+        <v>296218.563</v>
       </c>
       <c r="G228" t="n">
-        <v>1.021833333333335</v>
+        <v>1.022000000000002</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8426,7 +8408,7 @@
         <v>1.02</v>
       </c>
       <c r="F229" t="n">
-        <v>605403.004</v>
+        <v>943242.24</v>
       </c>
       <c r="G229" t="n">
         <v>1.021833333333335</v>
@@ -8461,7 +8443,7 @@
         <v>1.02</v>
       </c>
       <c r="F230" t="n">
-        <v>107776.958</v>
+        <v>605403.004</v>
       </c>
       <c r="G230" t="n">
         <v>1.021833333333335</v>
@@ -8496,7 +8478,7 @@
         <v>1.02</v>
       </c>
       <c r="F231" t="n">
-        <v>268822.024</v>
+        <v>107776.958</v>
       </c>
       <c r="G231" t="n">
         <v>1.021833333333335</v>
@@ -8519,19 +8501,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C232" t="n">
         <v>1.02</v>
       </c>
       <c r="D232" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E232" t="n">
         <v>1.02</v>
       </c>
       <c r="F232" t="n">
-        <v>507161.6773</v>
+        <v>268822.024</v>
       </c>
       <c r="G232" t="n">
         <v>1.021833333333335</v>
@@ -8554,22 +8536,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C233" t="n">
         <v>1.02</v>
       </c>
       <c r="D233" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E233" t="n">
         <v>1.02</v>
       </c>
       <c r="F233" t="n">
-        <v>1116516.554</v>
+        <v>507161.6773</v>
       </c>
       <c r="G233" t="n">
-        <v>1.021666666666669</v>
+        <v>1.021833333333335</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8601,7 +8583,7 @@
         <v>1.02</v>
       </c>
       <c r="F234" t="n">
-        <v>2894740.579</v>
+        <v>1116516.554</v>
       </c>
       <c r="G234" t="n">
         <v>1.021666666666669</v>
@@ -8636,7 +8618,7 @@
         <v>1.02</v>
       </c>
       <c r="F235" t="n">
-        <v>97405.07000000001</v>
+        <v>2894740.579</v>
       </c>
       <c r="G235" t="n">
         <v>1.021666666666669</v>
@@ -8659,22 +8641,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C236" t="n">
         <v>1.02</v>
       </c>
       <c r="D236" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E236" t="n">
         <v>1.02</v>
       </c>
       <c r="F236" t="n">
-        <v>214906.7824</v>
+        <v>97405.07000000001</v>
       </c>
       <c r="G236" t="n">
-        <v>1.021500000000002</v>
+        <v>1.021666666666669</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8694,22 +8676,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C237" t="n">
         <v>1.02</v>
       </c>
       <c r="D237" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E237" t="n">
         <v>1.02</v>
       </c>
       <c r="F237" t="n">
-        <v>282487.045</v>
+        <v>214906.7824</v>
       </c>
       <c r="G237" t="n">
-        <v>1.021333333333335</v>
+        <v>1.021500000000002</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8741,7 +8723,7 @@
         <v>1.02</v>
       </c>
       <c r="F238" t="n">
-        <v>371199.875</v>
+        <v>282487.045</v>
       </c>
       <c r="G238" t="n">
         <v>1.021333333333335</v>
@@ -8776,7 +8758,7 @@
         <v>1.02</v>
       </c>
       <c r="F239" t="n">
-        <v>436561.706</v>
+        <v>371199.875</v>
       </c>
       <c r="G239" t="n">
         <v>1.021333333333335</v>
@@ -8811,10 +8793,10 @@
         <v>1.02</v>
       </c>
       <c r="F240" t="n">
-        <v>10000</v>
+        <v>436561.706</v>
       </c>
       <c r="G240" t="n">
-        <v>1.021166666666669</v>
+        <v>1.021333333333335</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8834,22 +8816,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E241" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F241" t="n">
-        <v>26976.0801</v>
+        <v>10000</v>
       </c>
       <c r="G241" t="n">
-        <v>1.020833333333335</v>
+        <v>1.021166666666669</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8869,22 +8851,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E242" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F242" t="n">
-        <v>113.8789</v>
+        <v>26976.0801</v>
       </c>
       <c r="G242" t="n">
-        <v>1.020666666666669</v>
+        <v>1.020833333333335</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8904,7 +8886,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C243" t="n">
         <v>1.02</v>
@@ -8913,13 +8895,13 @@
         <v>1.02</v>
       </c>
       <c r="E243" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F243" t="n">
-        <v>100010</v>
+        <v>113.8789</v>
       </c>
       <c r="G243" t="n">
-        <v>1.020500000000002</v>
+        <v>1.020666666666669</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8942,19 +8924,19 @@
         <v>1.01</v>
       </c>
       <c r="C244" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D244" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E244" t="n">
         <v>1.01</v>
       </c>
       <c r="F244" t="n">
-        <v>143.6643</v>
+        <v>100010</v>
       </c>
       <c r="G244" t="n">
-        <v>1.020166666666669</v>
+        <v>1.020500000000002</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8974,19 +8956,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E245" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F245" t="n">
-        <v>3844.1176</v>
+        <v>143.6643</v>
       </c>
       <c r="G245" t="n">
         <v>1.020166666666669</v>
@@ -9021,10 +9003,10 @@
         <v>1.02</v>
       </c>
       <c r="F246" t="n">
-        <v>130.9268</v>
+        <v>3844.1176</v>
       </c>
       <c r="G246" t="n">
-        <v>1.020000000000002</v>
+        <v>1.020166666666669</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9056,7 +9038,7 @@
         <v>1.02</v>
       </c>
       <c r="F247" t="n">
-        <v>145.6668</v>
+        <v>130.9268</v>
       </c>
       <c r="G247" t="n">
         <v>1.020000000000002</v>
@@ -9091,10 +9073,10 @@
         <v>1.02</v>
       </c>
       <c r="F248" t="n">
-        <v>137.516</v>
+        <v>145.6668</v>
       </c>
       <c r="G248" t="n">
-        <v>1.019833333333335</v>
+        <v>1.020000000000002</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9114,22 +9096,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E249" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F249" t="n">
-        <v>124.7852</v>
+        <v>137.516</v>
       </c>
       <c r="G249" t="n">
-        <v>1.019666666666669</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9161,10 +9143,10 @@
         <v>1.01</v>
       </c>
       <c r="F250" t="n">
-        <v>122.4405</v>
+        <v>124.7852</v>
       </c>
       <c r="G250" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019666666666669</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9196,10 +9178,10 @@
         <v>1.01</v>
       </c>
       <c r="F251" t="n">
-        <v>117.971</v>
+        <v>122.4405</v>
       </c>
       <c r="G251" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9219,22 +9201,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E252" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F252" t="n">
-        <v>985721</v>
+        <v>117.971</v>
       </c>
       <c r="G252" t="n">
-        <v>1.019000000000002</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9254,7 +9236,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C253" t="n">
         <v>1.02</v>
@@ -9263,10 +9245,10 @@
         <v>1.02</v>
       </c>
       <c r="E253" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F253" t="n">
-        <v>130.0703</v>
+        <v>985721</v>
       </c>
       <c r="G253" t="n">
         <v>1.019000000000002</v>
@@ -9289,22 +9271,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C254" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D254" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E254" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F254" t="n">
-        <v>494537.708</v>
+        <v>130.0703</v>
       </c>
       <c r="G254" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9327,16 +9309,16 @@
         <v>1.02</v>
       </c>
       <c r="C255" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D255" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E255" t="n">
         <v>1.02</v>
       </c>
       <c r="F255" t="n">
-        <v>2298488.515</v>
+        <v>494537.708</v>
       </c>
       <c r="G255" t="n">
         <v>1.019166666666669</v>
@@ -9371,10 +9353,10 @@
         <v>1.02</v>
       </c>
       <c r="F256" t="n">
-        <v>357035.914</v>
+        <v>2298488.515</v>
       </c>
       <c r="G256" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9397,19 +9379,19 @@
         <v>1.02</v>
       </c>
       <c r="C257" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D257" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E257" t="n">
         <v>1.02</v>
       </c>
       <c r="F257" t="n">
-        <v>478582.7513</v>
+        <v>357035.914</v>
       </c>
       <c r="G257" t="n">
-        <v>1.019500000000002</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9432,16 +9414,16 @@
         <v>1.02</v>
       </c>
       <c r="C258" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D258" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E258" t="n">
         <v>1.02</v>
       </c>
       <c r="F258" t="n">
-        <v>2246227.156</v>
+        <v>478582.7513</v>
       </c>
       <c r="G258" t="n">
         <v>1.019500000000002</v>
@@ -9476,10 +9458,10 @@
         <v>1.02</v>
       </c>
       <c r="F259" t="n">
-        <v>2546734.842</v>
+        <v>2246227.156</v>
       </c>
       <c r="G259" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019500000000002</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9511,10 +9493,10 @@
         <v>1.02</v>
       </c>
       <c r="F260" t="n">
-        <v>2608745.189</v>
+        <v>2546734.842</v>
       </c>
       <c r="G260" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9546,7 +9528,7 @@
         <v>1.02</v>
       </c>
       <c r="F261" t="n">
-        <v>4705.678</v>
+        <v>2608745.189</v>
       </c>
       <c r="G261" t="n">
         <v>1.019166666666669</v>
@@ -9581,7 +9563,7 @@
         <v>1.02</v>
       </c>
       <c r="F262" t="n">
-        <v>336828.913</v>
+        <v>4705.678</v>
       </c>
       <c r="G262" t="n">
         <v>1.019166666666669</v>
@@ -9604,7 +9586,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C263" t="n">
         <v>1.02</v>
@@ -9613,10 +9595,10 @@
         <v>1.02</v>
       </c>
       <c r="E263" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F263" t="n">
-        <v>291511.4085</v>
+        <v>336828.913</v>
       </c>
       <c r="G263" t="n">
         <v>1.019166666666669</v>
@@ -9639,7 +9621,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C264" t="n">
         <v>1.02</v>
@@ -9648,10 +9630,10 @@
         <v>1.02</v>
       </c>
       <c r="E264" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F264" t="n">
-        <v>519296.702</v>
+        <v>291511.4085</v>
       </c>
       <c r="G264" t="n">
         <v>1.019166666666669</v>
@@ -9686,7 +9668,7 @@
         <v>1.02</v>
       </c>
       <c r="F265" t="n">
-        <v>975451.9179999999</v>
+        <v>519296.702</v>
       </c>
       <c r="G265" t="n">
         <v>1.019166666666669</v>
@@ -9721,10 +9703,10 @@
         <v>1.02</v>
       </c>
       <c r="F266" t="n">
-        <v>114935.708</v>
+        <v>975451.9179999999</v>
       </c>
       <c r="G266" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9747,19 +9729,19 @@
         <v>1.02</v>
       </c>
       <c r="C267" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D267" t="n">
         <v>1.02</v>
       </c>
       <c r="E267" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F267" t="n">
-        <v>332968.474</v>
+        <v>114935.708</v>
       </c>
       <c r="G267" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9782,16 +9764,16 @@
         <v>1.02</v>
       </c>
       <c r="C268" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D268" t="n">
         <v>1.02</v>
       </c>
       <c r="E268" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F268" t="n">
-        <v>1644625.995</v>
+        <v>332968.474</v>
       </c>
       <c r="G268" t="n">
         <v>1.019166666666669</v>
@@ -9826,7 +9808,7 @@
         <v>1.02</v>
       </c>
       <c r="F269" t="n">
-        <v>1460893.336</v>
+        <v>1644625.995</v>
       </c>
       <c r="G269" t="n">
         <v>1.019166666666669</v>
@@ -9861,7 +9843,7 @@
         <v>1.02</v>
       </c>
       <c r="F270" t="n">
-        <v>2002017.347</v>
+        <v>1460893.336</v>
       </c>
       <c r="G270" t="n">
         <v>1.019166666666669</v>
@@ -9887,16 +9869,16 @@
         <v>1.02</v>
       </c>
       <c r="C271" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D271" t="n">
         <v>1.02</v>
       </c>
       <c r="E271" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F271" t="n">
-        <v>176305.6379</v>
+        <v>2002017.347</v>
       </c>
       <c r="G271" t="n">
         <v>1.019166666666669</v>
@@ -9922,16 +9904,16 @@
         <v>1.02</v>
       </c>
       <c r="C272" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D272" t="n">
         <v>1.02</v>
       </c>
       <c r="E272" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F272" t="n">
-        <v>432831.154</v>
+        <v>176305.6379</v>
       </c>
       <c r="G272" t="n">
         <v>1.019166666666669</v>
@@ -9966,7 +9948,7 @@
         <v>1.02</v>
       </c>
       <c r="F273" t="n">
-        <v>663285.857</v>
+        <v>432831.154</v>
       </c>
       <c r="G273" t="n">
         <v>1.019166666666669</v>
@@ -10001,7 +9983,7 @@
         <v>1.02</v>
       </c>
       <c r="F274" t="n">
-        <v>1810612.026</v>
+        <v>663285.857</v>
       </c>
       <c r="G274" t="n">
         <v>1.019166666666669</v>
@@ -10036,7 +10018,7 @@
         <v>1.02</v>
       </c>
       <c r="F275" t="n">
-        <v>4120597.481</v>
+        <v>1810612.026</v>
       </c>
       <c r="G275" t="n">
         <v>1.019166666666669</v>
@@ -10071,10 +10053,10 @@
         <v>1.02</v>
       </c>
       <c r="F276" t="n">
-        <v>143051.405</v>
+        <v>4120597.481</v>
       </c>
       <c r="G276" t="n">
-        <v>1.019000000000002</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10094,19 +10076,19 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C277" t="n">
         <v>1.02</v>
       </c>
       <c r="D277" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E277" t="n">
         <v>1.02</v>
       </c>
       <c r="F277" t="n">
-        <v>2892772.8497</v>
+        <v>143051.405</v>
       </c>
       <c r="G277" t="n">
         <v>1.019000000000002</v>
@@ -10129,19 +10111,19 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C278" t="n">
         <v>1.02</v>
       </c>
       <c r="D278" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E278" t="n">
         <v>1.02</v>
       </c>
       <c r="F278" t="n">
-        <v>2891764.705</v>
+        <v>2892772.8497</v>
       </c>
       <c r="G278" t="n">
         <v>1.019000000000002</v>
@@ -10211,7 +10193,7 @@
         <v>1.02</v>
       </c>
       <c r="F280" t="n">
-        <v>2892647.058</v>
+        <v>2891764.705</v>
       </c>
       <c r="G280" t="n">
         <v>1.019000000000002</v>
@@ -10243,10 +10225,10 @@
         <v>1.02</v>
       </c>
       <c r="E281" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F281" t="n">
-        <v>280013.0147</v>
+        <v>2892647.058</v>
       </c>
       <c r="G281" t="n">
         <v>1.019000000000002</v>
@@ -10269,19 +10251,19 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C282" t="n">
         <v>1.02</v>
       </c>
       <c r="D282" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E282" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F282" t="n">
-        <v>466211.121</v>
+        <v>280013.0147</v>
       </c>
       <c r="G282" t="n">
         <v>1.019000000000002</v>
@@ -10304,19 +10286,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C283" t="n">
         <v>1.02</v>
       </c>
       <c r="D283" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E283" t="n">
         <v>1.02</v>
       </c>
       <c r="F283" t="n">
-        <v>618577.202</v>
+        <v>466211.121</v>
       </c>
       <c r="G283" t="n">
         <v>1.019000000000002</v>
@@ -10351,7 +10333,7 @@
         <v>1.02</v>
       </c>
       <c r="F284" t="n">
-        <v>818509.617</v>
+        <v>618577.202</v>
       </c>
       <c r="G284" t="n">
         <v>1.019000000000002</v>
@@ -10386,7 +10368,7 @@
         <v>1.02</v>
       </c>
       <c r="F285" t="n">
-        <v>122.9186</v>
+        <v>818509.617</v>
       </c>
       <c r="G285" t="n">
         <v>1.019000000000002</v>
@@ -10421,10 +10403,10 @@
         <v>1.02</v>
       </c>
       <c r="F286" t="n">
-        <v>934000</v>
+        <v>122.9186</v>
       </c>
       <c r="G286" t="n">
-        <v>1.019166666666669</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10456,7 +10438,7 @@
         <v>1.02</v>
       </c>
       <c r="F287" t="n">
-        <v>110.6488</v>
+        <v>934000</v>
       </c>
       <c r="G287" t="n">
         <v>1.019166666666669</v>
@@ -10491,7 +10473,7 @@
         <v>1.02</v>
       </c>
       <c r="F288" t="n">
-        <v>108.3958</v>
+        <v>110.6488</v>
       </c>
       <c r="G288" t="n">
         <v>1.019166666666669</v>
@@ -10526,7 +10508,7 @@
         <v>1.02</v>
       </c>
       <c r="F289" t="n">
-        <v>115.4441</v>
+        <v>108.3958</v>
       </c>
       <c r="G289" t="n">
         <v>1.019166666666669</v>
@@ -10549,22 +10531,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E290" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F290" t="n">
-        <v>152589.5978</v>
+        <v>115.4441</v>
       </c>
       <c r="G290" t="n">
-        <v>1.019000000000002</v>
+        <v>1.019166666666669</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10596,10 +10578,10 @@
         <v>1.01</v>
       </c>
       <c r="F291" t="n">
-        <v>120.3071</v>
+        <v>152589.5978</v>
       </c>
       <c r="G291" t="n">
-        <v>1.018833333333335</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10631,10 +10613,10 @@
         <v>1.01</v>
       </c>
       <c r="F292" t="n">
-        <v>105.2958</v>
+        <v>120.3071</v>
       </c>
       <c r="G292" t="n">
-        <v>1.018666666666669</v>
+        <v>1.018833333333335</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10654,19 +10636,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E293" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F293" t="n">
-        <v>59598.5294</v>
+        <v>105.2958</v>
       </c>
       <c r="G293" t="n">
         <v>1.018666666666669</v>
@@ -10701,7 +10683,7 @@
         <v>1.02</v>
       </c>
       <c r="F294" t="n">
-        <v>105.0554</v>
+        <v>59598.5294</v>
       </c>
       <c r="G294" t="n">
         <v>1.018666666666669</v>
@@ -10724,22 +10706,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E295" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F295" t="n">
-        <v>142.0728</v>
+        <v>105.0554</v>
       </c>
       <c r="G295" t="n">
-        <v>1.018500000000002</v>
+        <v>1.018666666666669</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10759,19 +10741,19 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E296" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F296" t="n">
-        <v>1021473.8397</v>
+        <v>142.0728</v>
       </c>
       <c r="G296" t="n">
         <v>1.018500000000002</v>
@@ -10794,22 +10776,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E297" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F297" t="n">
-        <v>10</v>
+        <v>1021473.8397</v>
       </c>
       <c r="G297" t="n">
-        <v>1.018666666666668</v>
+        <v>1.018500000000002</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10829,7 +10811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C298" t="n">
         <v>1.03</v>
@@ -10838,13 +10820,13 @@
         <v>1.03</v>
       </c>
       <c r="E298" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F298" t="n">
-        <v>140.1424</v>
+        <v>10</v>
       </c>
       <c r="G298" t="n">
-        <v>1.018833333333335</v>
+        <v>1.018666666666668</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10867,16 +10849,16 @@
         <v>1.02</v>
       </c>
       <c r="C299" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D299" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E299" t="n">
         <v>1.02</v>
       </c>
       <c r="F299" t="n">
-        <v>118.7875</v>
+        <v>140.1424</v>
       </c>
       <c r="G299" t="n">
         <v>1.018833333333335</v>
@@ -10885,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
@@ -10911,7 +10893,7 @@
         <v>1.02</v>
       </c>
       <c r="F300" t="n">
-        <v>1000000</v>
+        <v>118.7875</v>
       </c>
       <c r="G300" t="n">
         <v>1.018833333333335</v>
@@ -10946,10 +10928,10 @@
         <v>1.02</v>
       </c>
       <c r="F301" t="n">
-        <v>1000020</v>
+        <v>1000000</v>
       </c>
       <c r="G301" t="n">
-        <v>1.019000000000002</v>
+        <v>1.018833333333335</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10969,22 +10951,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E302" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F302" t="n">
-        <v>129.249</v>
+        <v>1000020</v>
       </c>
       <c r="G302" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019000000000002</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11004,19 +10986,19 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E303" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F303" t="n">
-        <v>38516.745</v>
+        <v>129.249</v>
       </c>
       <c r="G303" t="n">
         <v>1.019166666666668</v>
@@ -11039,22 +11021,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E304" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F304" t="n">
-        <v>126.8863</v>
+        <v>38516.745</v>
       </c>
       <c r="G304" t="n">
-        <v>1.019500000000002</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11074,19 +11056,19 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E305" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F305" t="n">
-        <v>113.8252</v>
+        <v>126.8863</v>
       </c>
       <c r="G305" t="n">
         <v>1.019500000000002</v>
@@ -11121,7 +11103,7 @@
         <v>1.02</v>
       </c>
       <c r="F306" t="n">
-        <v>1488355.6484</v>
+        <v>113.8252</v>
       </c>
       <c r="G306" t="n">
         <v>1.019500000000002</v>
@@ -11144,22 +11126,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E307" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F307" t="n">
-        <v>135.9989</v>
+        <v>1488355.6484</v>
       </c>
       <c r="G307" t="n">
-        <v>1.019666666666668</v>
+        <v>1.019500000000002</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11191,10 +11173,10 @@
         <v>1.03</v>
       </c>
       <c r="F308" t="n">
-        <v>107.8499</v>
+        <v>135.9989</v>
       </c>
       <c r="G308" t="n">
-        <v>1.019833333333335</v>
+        <v>1.019666666666668</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11214,22 +11196,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E309" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F309" t="n">
-        <v>1492.3762</v>
+        <v>107.8499</v>
       </c>
       <c r="G309" t="n">
-        <v>1.020000000000002</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11249,22 +11231,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E310" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F310" t="n">
-        <v>109.9571</v>
+        <v>1492.3762</v>
       </c>
       <c r="G310" t="n">
-        <v>1.020333333333335</v>
+        <v>1.020000000000002</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11296,10 +11278,10 @@
         <v>1.03</v>
       </c>
       <c r="F311" t="n">
-        <v>123.7205</v>
+        <v>109.9571</v>
       </c>
       <c r="G311" t="n">
-        <v>1.020666666666669</v>
+        <v>1.020333333333335</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11319,19 +11301,19 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E312" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F312" t="n">
-        <v>106.6256</v>
+        <v>123.7205</v>
       </c>
       <c r="G312" t="n">
         <v>1.020666666666669</v>
@@ -11366,7 +11348,7 @@
         <v>1.02</v>
       </c>
       <c r="F313" t="n">
-        <v>105.8443</v>
+        <v>106.6256</v>
       </c>
       <c r="G313" t="n">
         <v>1.020666666666669</v>
@@ -11401,10 +11383,10 @@
         <v>1.02</v>
       </c>
       <c r="F314" t="n">
-        <v>357738.7147</v>
+        <v>105.8443</v>
       </c>
       <c r="G314" t="n">
-        <v>1.020500000000002</v>
+        <v>1.020666666666669</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11424,22 +11406,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E315" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F315" t="n">
-        <v>140.9522</v>
+        <v>357738.7147</v>
       </c>
       <c r="G315" t="n">
-        <v>1.020333333333335</v>
+        <v>1.020500000000002</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11471,10 +11453,10 @@
         <v>1.01</v>
       </c>
       <c r="F316" t="n">
-        <v>50000</v>
+        <v>140.9522</v>
       </c>
       <c r="G316" t="n">
-        <v>1.020166666666668</v>
+        <v>1.020333333333335</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11506,10 +11488,10 @@
         <v>1.01</v>
       </c>
       <c r="F317" t="n">
-        <v>120.9929</v>
+        <v>50000</v>
       </c>
       <c r="G317" t="n">
-        <v>1.019833333333335</v>
+        <v>1.020166666666668</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11541,10 +11523,10 @@
         <v>1.01</v>
       </c>
       <c r="F318" t="n">
-        <v>113.0797</v>
+        <v>120.9929</v>
       </c>
       <c r="G318" t="n">
-        <v>1.019666666666668</v>
+        <v>1.019833333333335</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11576,10 +11558,10 @@
         <v>1.01</v>
       </c>
       <c r="F319" t="n">
-        <v>105.0504</v>
+        <v>113.0797</v>
       </c>
       <c r="G319" t="n">
-        <v>1.019500000000002</v>
+        <v>1.019666666666668</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11599,19 +11581,19 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E320" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F320" t="n">
-        <v>143.4774</v>
+        <v>105.0504</v>
       </c>
       <c r="G320" t="n">
         <v>1.019500000000002</v>
@@ -11646,7 +11628,7 @@
         <v>1.02</v>
       </c>
       <c r="F321" t="n">
-        <v>131.3514</v>
+        <v>143.4774</v>
       </c>
       <c r="G321" t="n">
         <v>1.019500000000002</v>
@@ -11669,22 +11651,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E322" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F322" t="n">
-        <v>812829</v>
+        <v>131.3514</v>
       </c>
       <c r="G322" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019500000000002</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11704,19 +11686,19 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E323" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F323" t="n">
-        <v>103.7914</v>
+        <v>812829</v>
       </c>
       <c r="G323" t="n">
         <v>1.019333333333335</v>
@@ -11739,22 +11721,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E324" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F324" t="n">
-        <v>116.7888</v>
+        <v>103.7914</v>
       </c>
       <c r="G324" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11774,19 +11756,19 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E325" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F325" t="n">
-        <v>145.9511</v>
+        <v>116.7888</v>
       </c>
       <c r="G325" t="n">
         <v>1.019166666666668</v>
@@ -11821,7 +11803,7 @@
         <v>1.02</v>
       </c>
       <c r="F326" t="n">
-        <v>14683.2352</v>
+        <v>145.9511</v>
       </c>
       <c r="G326" t="n">
         <v>1.019166666666668</v>
@@ -11856,10 +11838,10 @@
         <v>1.02</v>
       </c>
       <c r="F327" t="n">
-        <v>117.2742</v>
+        <v>14683.2352</v>
       </c>
       <c r="G327" t="n">
-        <v>1.019333333333335</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -11879,22 +11861,22 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E328" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F328" t="n">
-        <v>104.6659</v>
+        <v>117.2742</v>
       </c>
       <c r="G328" t="n">
-        <v>1.019166666666668</v>
+        <v>1.019333333333335</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -11926,10 +11908,10 @@
         <v>1.01</v>
       </c>
       <c r="F329" t="n">
-        <v>110.2956</v>
+        <v>104.6659</v>
       </c>
       <c r="G329" t="n">
-        <v>1.019000000000001</v>
+        <v>1.019166666666668</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11952,16 +11934,16 @@
         <v>1.01</v>
       </c>
       <c r="C330" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D330" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E330" t="n">
         <v>1.01</v>
       </c>
       <c r="F330" t="n">
-        <v>322.5744</v>
+        <v>110.2956</v>
       </c>
       <c r="G330" t="n">
         <v>1.019000000000001</v>
@@ -11987,16 +11969,16 @@
         <v>1.01</v>
       </c>
       <c r="C331" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D331" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E331" t="n">
         <v>1.01</v>
       </c>
       <c r="F331" t="n">
-        <v>112.7983</v>
+        <v>322.5744</v>
       </c>
       <c r="G331" t="n">
         <v>1.019000000000001</v>
@@ -12031,10 +12013,10 @@
         <v>1.01</v>
       </c>
       <c r="F332" t="n">
-        <v>140.1046</v>
+        <v>112.7983</v>
       </c>
       <c r="G332" t="n">
-        <v>1.018833333333335</v>
+        <v>1.019000000000001</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12057,16 +12039,16 @@
         <v>1.01</v>
       </c>
       <c r="C333" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D333" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E333" t="n">
         <v>1.01</v>
       </c>
       <c r="F333" t="n">
-        <v>21.7843</v>
+        <v>140.1046</v>
       </c>
       <c r="G333" t="n">
         <v>1.018833333333335</v>
@@ -12089,7 +12071,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C334" t="n">
         <v>1.02</v>
@@ -12098,10 +12080,10 @@
         <v>1.02</v>
       </c>
       <c r="E334" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F334" t="n">
-        <v>105.3655</v>
+        <v>21.7843</v>
       </c>
       <c r="G334" t="n">
         <v>1.018833333333335</v>
@@ -12124,22 +12106,22 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E335" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F335" t="n">
-        <v>108.8692</v>
+        <v>105.3655</v>
       </c>
       <c r="G335" t="n">
-        <v>1.018666666666668</v>
+        <v>1.018833333333335</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12162,16 +12144,16 @@
         <v>1.01</v>
       </c>
       <c r="C336" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D336" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E336" t="n">
         <v>1.01</v>
       </c>
       <c r="F336" t="n">
-        <v>69064.1136</v>
+        <v>108.8692</v>
       </c>
       <c r="G336" t="n">
         <v>1.018666666666668</v>
@@ -12197,19 +12179,19 @@
         <v>1.01</v>
       </c>
       <c r="C337" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D337" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E337" t="n">
         <v>1.01</v>
       </c>
       <c r="F337" t="n">
-        <v>3968188.1181</v>
+        <v>69064.1136</v>
       </c>
       <c r="G337" t="n">
-        <v>1.018500000000001</v>
+        <v>1.018666666666668</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12229,19 +12211,19 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E338" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F338" t="n">
-        <v>10</v>
+        <v>3968188.1181</v>
       </c>
       <c r="G338" t="n">
         <v>1.018500000000001</v>
@@ -12276,7 +12258,7 @@
         <v>1.02</v>
       </c>
       <c r="F339" t="n">
-        <v>121.5837</v>
+        <v>10</v>
       </c>
       <c r="G339" t="n">
         <v>1.018500000000001</v>
@@ -12311,7 +12293,7 @@
         <v>1.02</v>
       </c>
       <c r="F340" t="n">
-        <v>121.7156</v>
+        <v>121.5837</v>
       </c>
       <c r="G340" t="n">
         <v>1.018500000000001</v>
@@ -12346,7 +12328,7 @@
         <v>1.02</v>
       </c>
       <c r="F341" t="n">
-        <v>133.7642</v>
+        <v>121.7156</v>
       </c>
       <c r="G341" t="n">
         <v>1.018500000000001</v>
@@ -12369,22 +12351,22 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F342" t="n">
-        <v>125.662</v>
+        <v>133.7642</v>
       </c>
       <c r="G342" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018500000000001</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12416,10 +12398,10 @@
         <v>1.01</v>
       </c>
       <c r="F343" t="n">
-        <v>129.3765</v>
+        <v>125.662</v>
       </c>
       <c r="G343" t="n">
-        <v>1.018166666666668</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12451,10 +12433,10 @@
         <v>1.01</v>
       </c>
       <c r="F344" t="n">
-        <v>124.8013</v>
+        <v>129.3765</v>
       </c>
       <c r="G344" t="n">
-        <v>1.018000000000001</v>
+        <v>1.018166666666668</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12486,10 +12468,10 @@
         <v>1.01</v>
       </c>
       <c r="F345" t="n">
-        <v>141.3539</v>
+        <v>124.8013</v>
       </c>
       <c r="G345" t="n">
-        <v>1.017833333333334</v>
+        <v>1.018000000000001</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12521,10 +12503,10 @@
         <v>1.01</v>
       </c>
       <c r="F346" t="n">
-        <v>135.8783</v>
+        <v>141.3539</v>
       </c>
       <c r="G346" t="n">
-        <v>1.017666666666667</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12544,19 +12526,19 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E347" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F347" t="n">
-        <v>200050.9803</v>
+        <v>135.8783</v>
       </c>
       <c r="G347" t="n">
         <v>1.017666666666667</v>
@@ -12591,7 +12573,7 @@
         <v>1.02</v>
       </c>
       <c r="F348" t="n">
-        <v>145.6564</v>
+        <v>200050.9803</v>
       </c>
       <c r="G348" t="n">
         <v>1.017666666666667</v>
@@ -12614,22 +12596,22 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F349" t="n">
-        <v>108.9225</v>
+        <v>145.6564</v>
       </c>
       <c r="G349" t="n">
-        <v>1.017500000000001</v>
+        <v>1.017666666666667</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12661,7 +12643,7 @@
         <v>1.01</v>
       </c>
       <c r="F350" t="n">
-        <v>126.9447</v>
+        <v>108.9225</v>
       </c>
       <c r="G350" t="n">
         <v>1.017500000000001</v>
@@ -12687,19 +12669,19 @@
         <v>1.01</v>
       </c>
       <c r="C351" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D351" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E351" t="n">
         <v>1.01</v>
       </c>
       <c r="F351" t="n">
-        <v>115389344.0434</v>
+        <v>126.9447</v>
       </c>
       <c r="G351" t="n">
-        <v>1.017666666666667</v>
+        <v>1.017500000000001</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -12719,7 +12701,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C352" t="n">
         <v>1.02</v>
@@ -12728,13 +12710,13 @@
         <v>1.02</v>
       </c>
       <c r="E352" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F352" t="n">
-        <v>413271398.1134</v>
+        <v>115389344.0434</v>
       </c>
       <c r="G352" t="n">
-        <v>1.017833333333334</v>
+        <v>1.017666666666667</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -12766,7 +12748,7 @@
         <v>1.02</v>
       </c>
       <c r="F353" t="n">
-        <v>143482050.2564</v>
+        <v>413271398.1134</v>
       </c>
       <c r="G353" t="n">
         <v>1.017833333333334</v>
@@ -12801,7 +12783,7 @@
         <v>1.02</v>
       </c>
       <c r="F354" t="n">
-        <v>946551.6302</v>
+        <v>143482050.2564</v>
       </c>
       <c r="G354" t="n">
         <v>1.017833333333334</v>
@@ -12827,19 +12809,19 @@
         <v>1.02</v>
       </c>
       <c r="C355" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D355" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E355" t="n">
         <v>1.02</v>
       </c>
       <c r="F355" t="n">
-        <v>229.6969</v>
+        <v>946551.6302</v>
       </c>
       <c r="G355" t="n">
-        <v>1.018166666666667</v>
+        <v>1.017833333333334</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -12859,7 +12841,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C356" t="n">
         <v>1.03</v>
@@ -12868,13 +12850,13 @@
         <v>1.03</v>
       </c>
       <c r="E356" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F356" t="n">
-        <v>143.256</v>
+        <v>229.6969</v>
       </c>
       <c r="G356" t="n">
-        <v>1.018333333333334</v>
+        <v>1.018166666666667</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -12906,7 +12888,7 @@
         <v>1.03</v>
       </c>
       <c r="F357" t="n">
-        <v>1000</v>
+        <v>143.256</v>
       </c>
       <c r="G357" t="n">
         <v>1.018333333333334</v>
@@ -12929,22 +12911,22 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E358" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F358" t="n">
-        <v>675063.071</v>
+        <v>1000</v>
       </c>
       <c r="G358" t="n">
-        <v>1.018166666666667</v>
+        <v>1.018333333333334</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -12959,6 +12941,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F359" t="n">
+        <v>675063.071</v>
+      </c>
+      <c r="G359" t="n">
+        <v>1.018166666666667</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-14 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-14 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2299,7 +2299,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>26732849.82220769</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>26732961.31350769</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>26732961.31350769</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>26732815.1615077</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>26732849.6093077</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>26732876.1214077</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>26732881.8915077</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>21952389.99600769</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,14 +10318,10 @@
         <v>21952503.87490769</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J301" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
@@ -10358,453 +10354,395 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K302" t="inlineStr">
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F303" t="n">
+        <v>143.6643</v>
+      </c>
+      <c r="G303" t="n">
+        <v>21952360.21060769</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F304" t="n">
+        <v>3844.1176</v>
+      </c>
+      <c r="G304" t="n">
+        <v>21956204.32820769</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F305" t="n">
+        <v>130.9268</v>
+      </c>
+      <c r="G305" t="n">
+        <v>21956204.32820769</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F306" t="n">
+        <v>145.6668</v>
+      </c>
+      <c r="G306" t="n">
+        <v>21956204.32820769</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F307" t="n">
+        <v>137.516</v>
+      </c>
+      <c r="G307" t="n">
+        <v>21956204.32820769</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F308" t="n">
+        <v>124.7852</v>
+      </c>
+      <c r="G308" t="n">
+        <v>21956079.54300769</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F309" t="n">
+        <v>122.4405</v>
+      </c>
+      <c r="G309" t="n">
+        <v>21956079.54300769</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F310" t="n">
+        <v>117.971</v>
+      </c>
+      <c r="G310" t="n">
+        <v>21956079.54300769</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F311" t="n">
+        <v>985721</v>
+      </c>
+      <c r="G311" t="n">
+        <v>22941800.54300769</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F312" t="n">
+        <v>130.0703</v>
+      </c>
+      <c r="G312" t="n">
+        <v>22941800.54300769</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F313" t="n">
+        <v>494537.708</v>
+      </c>
+      <c r="G313" t="n">
+        <v>23436338.25100769</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C303" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D303" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E303" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F303" t="n">
-        <v>143.6643</v>
-      </c>
-      <c r="G303" t="n">
-        <v>21952360.21060769</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C304" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D304" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E304" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F304" t="n">
-        <v>3844.1176</v>
-      </c>
-      <c r="G304" t="n">
-        <v>21956204.32820769</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J304" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C305" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D305" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E305" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F305" t="n">
-        <v>130.9268</v>
-      </c>
-      <c r="G305" t="n">
-        <v>21956204.32820769</v>
-      </c>
-      <c r="H305" t="n">
-        <v>3</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C306" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D306" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E306" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F306" t="n">
-        <v>145.6668</v>
-      </c>
-      <c r="G306" t="n">
-        <v>21956204.32820769</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C307" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D307" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E307" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F307" t="n">
-        <v>137.516</v>
-      </c>
-      <c r="G307" t="n">
-        <v>21956204.32820769</v>
-      </c>
-      <c r="H307" t="n">
-        <v>3</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C308" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D308" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E308" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F308" t="n">
-        <v>124.7852</v>
-      </c>
-      <c r="G308" t="n">
-        <v>21956079.54300769</v>
-      </c>
-      <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J308" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C309" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D309" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E309" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F309" t="n">
-        <v>122.4405</v>
-      </c>
-      <c r="G309" t="n">
-        <v>21956079.54300769</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C310" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D310" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E310" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F310" t="n">
-        <v>117.971</v>
-      </c>
-      <c r="G310" t="n">
-        <v>21956079.54300769</v>
-      </c>
-      <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J310" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C311" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D311" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E311" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F311" t="n">
-        <v>985721</v>
-      </c>
-      <c r="G311" t="n">
-        <v>22941800.54300769</v>
-      </c>
-      <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J311" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C312" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D312" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E312" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F312" t="n">
-        <v>130.0703</v>
-      </c>
-      <c r="G312" t="n">
-        <v>22941800.54300769</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C313" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D313" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E313" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F313" t="n">
-        <v>494537.708</v>
-      </c>
-      <c r="G313" t="n">
-        <v>23436338.25100769</v>
-      </c>
-      <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J313" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10833,14 +10771,10 @@
         <v>21137849.73600769</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J314" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,19 +10808,17 @@
         <v>21137849.73600769</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
-        <v>1.00490099009901</v>
+        <v>1</v>
       </c>
       <c r="M315" t="inlineStr"/>
     </row>
@@ -10913,17 +10845,13 @@
         <v>21616432.48730769</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J316" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L316" t="n">
@@ -10954,14 +10882,10 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J317" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10995,12 +10919,10 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11034,14 +10956,12 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>1.02</v>
       </c>
-      <c r="J319" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11075,12 +10995,10 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11114,14 +11032,10 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J321" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,9 +11072,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11194,14 +11106,10 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J323" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11235,14 +11143,10 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J324" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11276,14 +11180,10 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J325" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11320,9 +11220,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,14 +11254,10 @@
         <v>20681862.85230769</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J327" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11400,9 +11294,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11436,19 +11328,17 @@
         <v>20681862.85230769</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1.03</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L329" t="n">
-        <v>0.9852912621359223</v>
+        <v>1</v>
       </c>
       <c r="M329" t="inlineStr"/>
     </row>
@@ -11479,7 +11369,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11508,15 +11402,15 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J331" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11548,12 +11442,10 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L332" t="n">
@@ -11584,17 +11476,13 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J333" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
@@ -11629,7 +11517,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11658,15 +11550,15 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J335" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K335" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11695,17 +11587,13 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J336" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
@@ -11736,14 +11624,10 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J337" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11780,9 +11664,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11816,14 +11698,10 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J339" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11860,9 +11738,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11899,9 +11775,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11938,9 +11812,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11974,14 +11846,10 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J343" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12018,9 +11886,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12054,14 +11920,10 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J345" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12098,9 +11960,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12134,14 +11994,10 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J347" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12178,9 +12034,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,14 +12068,10 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J349" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12258,9 +12108,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12294,14 +12142,10 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J351" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,9 +12182,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12377,9 +12219,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,9 +12256,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12452,14 +12290,10 @@
         <v>21866729.06690769</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J355" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,9 +12330,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,9 +12367,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12574,9 +12404,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12610,14 +12438,10 @@
         <v>21866620.27940769</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J359" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12654,9 +12478,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,9 +12515,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12732,9 +12552,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12771,9 +12589,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12810,9 +12626,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12849,9 +12663,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12888,9 +12700,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12927,9 +12737,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12966,9 +12774,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13005,9 +12811,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13044,9 +12848,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13083,9 +12885,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13119,19 +12919,17 @@
         <v>21826892.79870769</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L372" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M372" t="inlineStr"/>
     </row>
@@ -13162,7 +12960,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13195,7 +12997,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13228,7 +13034,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13261,7 +13071,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13290,11 +13104,17 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13323,11 +13143,17 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13356,11 +13182,17 @@
         <v>21826895.32390769</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13389,11 +13221,17 @@
         <v>21826895.32390769</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13422,11 +13260,17 @@
         <v>21014066.32390769</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13455,11 +13299,17 @@
         <v>21014170.11530769</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13342,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13525,7 +13379,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13558,7 +13416,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13591,7 +13453,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13624,7 +13490,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13657,7 +13527,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13690,7 +13564,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13723,7 +13601,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13756,7 +13638,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13789,7 +13675,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13822,7 +13712,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13855,7 +13749,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13888,7 +13786,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13921,7 +13823,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13954,7 +13860,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13987,7 +13897,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14020,7 +13934,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14053,7 +13971,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14086,7 +14008,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14119,7 +14045,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14152,7 +14082,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14185,7 +14119,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14218,7 +14156,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14251,7 +14193,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14284,7 +14230,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14317,7 +14267,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14350,7 +14304,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14383,7 +14341,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14416,7 +14378,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14449,7 +14415,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14482,7 +14452,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14515,7 +14489,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14548,7 +14526,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14581,7 +14563,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14614,7 +14600,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14647,7 +14637,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14680,7 +14674,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14713,7 +14711,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14746,7 +14748,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14779,7 +14785,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14812,7 +14822,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14845,7 +14859,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +14896,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14911,7 +14933,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14944,13 +14970,17 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
       <c r="M427" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-14 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2299,7 +2299,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>26732849.82220769</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>26732961.31350769</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>26732961.31350769</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>26732815.1615077</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>26732849.6093077</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>26732876.1214077</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>26732881.8915077</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>21441421.45040769</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -10318,10 +10318,14 @@
         <v>21952503.87490769</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
@@ -10354,8 +10358,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10387,8 +10397,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10436,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10475,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10514,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10553,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10592,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10590,7 +10636,11 @@
       <c r="J309" t="n">
         <v>1.01</v>
       </c>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,15 +10669,17 @@
         <v>21956079.54300769</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J310" t="n">
         <v>1.01</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L310" t="n">
@@ -10658,17 +10710,15 @@
         <v>22941800.54300769</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
         <v>1.01</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -10702,8 +10752,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10732,15 +10788,15 @@
         <v>23436338.25100769</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L313" t="n">
@@ -10774,7 +10830,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10811,7 +10869,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10848,7 +10908,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,7 +10947,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10922,7 +10986,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10956,12 +11022,12 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10998,7 +11064,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11035,7 +11103,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11072,7 +11142,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11109,7 +11181,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11146,7 +11220,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11183,7 +11259,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11220,7 +11298,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11257,7 +11337,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11294,7 +11376,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11331,7 +11415,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11368,7 +11454,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11405,7 +11493,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11442,7 +11532,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11479,7 +11571,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11516,7 +11610,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11553,7 +11649,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,7 +11688,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11627,7 +11727,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,7 +11766,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11701,7 +11805,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11738,7 +11844,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11775,7 +11883,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11812,7 +11922,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11849,7 +11961,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11886,7 +12000,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11923,7 +12039,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,7 +12078,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11997,7 +12117,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12034,7 +12156,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12071,7 +12195,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12108,7 +12234,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12145,7 +12273,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,7 +12312,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12219,7 +12351,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12256,7 +12390,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12293,7 +12429,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12330,7 +12468,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12367,7 +12507,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12404,7 +12546,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12441,7 +12585,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12478,7 +12624,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12515,7 +12663,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12552,7 +12702,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12589,7 +12741,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12626,7 +12780,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12663,7 +12819,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12700,7 +12858,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12737,7 +12897,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12774,7 +12936,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12811,7 +12975,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12848,7 +13014,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12885,7 +13053,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12922,7 +13092,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12959,7 +13131,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12996,7 +13170,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13033,7 +13209,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13070,7 +13248,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13104,12 +13284,12 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13143,12 +13323,12 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13182,12 +13362,12 @@
         <v>21826895.32390769</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13221,12 +13401,12 @@
         <v>21826895.32390769</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J380" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13260,12 +13440,12 @@
         <v>21014066.32390769</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J381" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13299,12 +13479,12 @@
         <v>21014170.11530769</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13341,7 +13521,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13378,7 +13560,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13415,7 +13599,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13452,7 +13638,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13489,7 +13677,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13526,7 +13716,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13563,7 +13755,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,7 +13794,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13637,7 +13833,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,7 +13872,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,7 +13911,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13748,7 +13950,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13785,7 +13989,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13822,7 +14028,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13859,7 +14067,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13896,7 +14106,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13933,7 +14145,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13970,7 +14184,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14007,7 +14223,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14044,7 +14262,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14081,7 +14301,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14118,7 +14340,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14155,7 +14379,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14192,7 +14418,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,7 +14457,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14266,7 +14496,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14303,7 +14535,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14340,7 +14574,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14377,7 +14613,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14414,7 +14652,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14451,7 +14691,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14488,7 +14730,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14525,7 +14769,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14562,7 +14808,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14599,7 +14847,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14636,7 +14886,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14673,7 +14925,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14710,7 +14964,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14747,7 +15003,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14784,7 +15042,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14821,7 +15081,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14858,7 +15120,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14895,7 +15159,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14932,7 +15198,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14969,7 +15237,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14981,6 +15251,6 @@
       <c r="M427" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-14 BackTest TMTG.xlsx
@@ -748,10 +748,14 @@
         <v>2676211.582107691</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.02</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -784,8 +788,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +827,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -2002,7 +2018,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3107,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3173,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3239,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3487,7 +3503,7 @@
         <v>26732815.1615077</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3569,7 @@
         <v>26732849.6093077</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3635,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3668,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3701,7 @@
         <v>26732876.1214077</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3734,7 @@
         <v>26732984.46800769</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3767,7 @@
         <v>26732881.8915077</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3833,7 @@
         <v>26732984.1100077</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3866,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3899,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4031,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4064,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4097,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4130,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4163,7 @@
         <v>26305330.29810769</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4196,7 @@
         <v>26305220.46070769</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4229,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4262,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4295,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4328,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4361,7 @@
         <v>26305193.06240769</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4444,7 +4460,7 @@
         <v>26305215.92310769</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4493,7 @@
         <v>26305348.7207077</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4526,7 @@
         <v>26305247.7661077</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4559,7 @@
         <v>26305358.8217077</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4592,7 @@
         <v>26305232.69180769</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4658,7 @@
         <v>26305231.04370769</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4741,7 +4757,7 @@
         <v>26305363.18180769</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4790,7 @@
         <v>26305363.18180769</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4823,7 @@
         <v>25513130.17220769</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -6622,10 +6638,14 @@
         <v>25523871.04220769</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6658,8 +6678,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +6717,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6786,17 @@
         <v>25523898.68020769</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6829,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6866,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +6903,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6936,17 @@
         <v>25227214.59660769</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +6979,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7012,17 @@
         <v>25227214.59660769</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7055,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7088,17 @@
         <v>25519305.10580769</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7131,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7168,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7205,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7242,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7279,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7316,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7353,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7390,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7427,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7464,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7501,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7538,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7575,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7612,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7649,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7686,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7723,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7760,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7797,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7834,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7871,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7908,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7945,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7982,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8019,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8056,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8093,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8130,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8167,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8204,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8241,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8278,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8315,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8352,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8389,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8426,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8459,15 @@
         <v>21441421.45040769</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8500,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8537,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8574,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8611,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8648,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8685,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8722,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8759,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8796,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8833,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8870,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8907,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8944,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8981,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9018,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9055,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9092,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9129,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9166,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9203,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9240,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9277,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9314,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9351,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9388,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9425,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9462,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9499,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9536,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9573,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9610,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9647,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9684,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9721,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9758,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9795,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9832,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9869,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9906,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9943,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9980,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10017,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10054,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10091,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10128,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10165,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10202,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10239,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10276,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10313,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10350,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10387,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,14 +10420,16 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
@@ -10021,7 +10455,7 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10318,14 +10752,10 @@
         <v>21952503.87490769</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J301" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
@@ -10358,14 +10788,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10397,14 +10821,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10436,14 +10854,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10475,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10514,14 +10920,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10553,14 +10953,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10592,14 +10986,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10636,11 +11024,7 @@
       <c r="J309" t="n">
         <v>1.01</v>
       </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10669,17 +11053,15 @@
         <v>21956079.54300769</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
         <v>1.01</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L310" t="n">
@@ -10710,15 +11092,17 @@
         <v>22941800.54300769</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J311" t="n">
         <v>1.01</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -10752,14 +11136,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10791,14 +11169,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10830,14 +11202,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10869,14 +11235,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10908,14 +11268,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10947,14 +11301,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +11334,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11025,14 +11367,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11064,14 +11400,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11103,14 +11433,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11142,14 +11466,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11181,14 +11499,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11220,14 +11532,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11259,14 +11565,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11298,14 +11598,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +11631,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11376,14 +11664,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11415,14 +11697,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11454,14 +11730,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11490,17 +11760,15 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J331" t="n">
         <v>1.01</v>
       </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11537,7 +11805,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L332" t="n">
@@ -11576,7 +11844,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
@@ -11610,14 +11878,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11649,14 +11911,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11688,14 +11944,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11727,14 +11977,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11766,14 +12010,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11802,17 +12040,15 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J339" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.02</v>
+      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11845,11 +12081,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L340" t="n">
@@ -11880,11 +12116,13 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J341" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -11923,7 +12161,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -11962,7 +12200,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12001,7 +12239,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12040,7 +12278,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12079,7 +12317,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12118,7 +12356,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12157,7 +12395,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12192,11 +12430,13 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J349" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12231,11 +12471,13 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J350" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12270,11 +12512,13 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J351" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12309,11 +12553,13 @@
         <v>20845397.30000769</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J352" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12348,11 +12594,13 @@
         <v>20845397.30000769</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J353" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12387,11 +12635,13 @@
         <v>20845255.22720769</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J354" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12426,11 +12676,13 @@
         <v>21866729.06690769</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J355" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12465,11 +12717,13 @@
         <v>21866739.06690769</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J356" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12504,11 +12758,13 @@
         <v>21866739.06690769</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J357" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12547,7 +12803,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12586,7 +12842,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12625,7 +12881,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12660,11 +12916,13 @@
         <v>21866749.52840769</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J361" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12703,7 +12961,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12742,7 +13000,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12781,7 +13039,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12820,7 +13078,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12859,7 +13117,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12898,7 +13156,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12937,7 +13195,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12976,7 +13234,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13015,7 +13273,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13054,7 +13312,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13093,7 +13351,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13132,7 +13390,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13171,7 +13429,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13210,7 +13468,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13245,11 +13503,13 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J376" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13284,11 +13544,13 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J377" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13323,11 +13585,13 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J378" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13362,11 +13626,13 @@
         <v>21826895.32390769</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J379" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13405,7 +13671,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13444,7 +13710,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13483,7 +13749,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13522,7 +13788,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13557,11 +13823,13 @@
         <v>21014199.27760769</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J384" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13600,7 +13868,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13639,7 +13907,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13678,7 +13946,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13717,7 +13985,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13756,7 +14024,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13795,7 +14063,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13834,7 +14102,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13873,7 +14141,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13912,7 +14180,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13951,7 +14219,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13990,7 +14258,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14029,7 +14297,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14068,7 +14336,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14107,7 +14375,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14146,7 +14414,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14185,7 +14453,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14224,7 +14492,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14263,7 +14531,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14302,7 +14570,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14337,11 +14605,13 @@
         <v>17114977.63640769</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J404" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14380,7 +14650,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14415,11 +14685,13 @@
         <v>17315028.61670769</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J406" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14458,7 +14730,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14497,7 +14769,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14536,7 +14808,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14575,7 +14847,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14614,7 +14886,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14653,7 +14925,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14692,7 +14964,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14731,7 +15003,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14770,7 +15042,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14809,7 +15081,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14848,7 +15120,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14887,7 +15159,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14926,7 +15198,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14965,7 +15237,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15004,7 +15276,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15043,7 +15315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15082,7 +15354,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15121,7 +15393,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15160,7 +15432,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15199,7 +15471,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15238,7 +15510,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
